--- a/ExchangeActiveSync/Docs/MS-ASNOTE/MS-ASNOTE_RequirementSpecification.xlsx
+++ b/ExchangeActiveSync/Docs/MS-ASNOTE/MS-ASNOTE_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="327">
   <si>
     <t>Req ID</t>
   </si>
@@ -845,12 +845,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.6.5</t>
-  </si>
-  <si>
     <t>[In Transport] This protocol consists of a series of XML elements that are embedded inside of a command request or command response, as specified in [MS-ASCMD].</t>
   </si>
   <si>
@@ -1211,48 +1205,50 @@
     <t>[In Compact DateTime] A Compact DateTime value is a representation of a UTC date and time within an element of type xs:string, as specified in [XMLSCHEMA2/2] section 3.2.1.</t>
   </si>
   <si>
+    <t>MS-ASNOTE</t>
+  </si>
+  <si>
+    <t>Exchange ActiveSync: Notes Class Protocol</t>
+  </si>
+  <si>
+    <t>8.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Requesting Details for One or More Notes] A client requests Notes class data for one or more individual notes by sending an ItemOperations command request ([MS-ASCMD] section 2.2.2.8) to the server that contains one or more itemoperations:Fetch elements ([MS-ASCMD] section 2.2.3.63.1).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Sync Command Response] If the Categories element (section 2.2.2.2) that was previously set is missing[in an airsync:Change element in a Sync command request], the server will delete that property from the note.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[In Compact DateTime] [The format of a Compact DateTime value is specified by the following Augmented Backus-Naur Form (ABNF) notation. ]
-date_string   = year month day "T" hour minute seconds [milliseconds] "Z"
+date_string   = year month day "T" hour minute seconds "Z"
 year          = 4*DIGIT
 month         = ("0" DIGIT) / "10" / "11" / "12"
 day           = ("0" DIGIT) / ("1" DIGIT) / ("2" DIGIT) / "30" / "31"
 hour          = ("0" DIGIT) / ("1" DIGIT) / "20" / "21" / "22" / "23"
 minute        = ("0" DIGIT) / ("1" DIGIT) / ("2" DIGIT) / ("3" DIGIT) / ("4" DIGIT) / ("5" DIGIT)
-seconds       = ("0" DIGIT) / ("1" DIGIT) / ("2" DIGIT) / ("3" DIGIT) / ("4" DIGIT) / ("5" DIGIT)
-milliseconds  = 1*3DIGIT</t>
-  </si>
-  <si>
-    <t>MS-ASNOTE</t>
-  </si>
-  <si>
-    <t>Exchange ActiveSync: Notes Class Protocol</t>
-  </si>
-  <si>
-    <t>8.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Requesting Details for One or More Notes] A client requests Notes class data for one or more individual notes by sending an ItemOperations command request ([MS-ASCMD] section 2.2.2.8) to the server that contains one or more itemoperations:Fetch elements ([MS-ASCMD] section 2.2.3.63.1).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Sync Command Response] If the Categories element (section 2.2.2.2) that was previously set is missing[in an airsync:Change element in a Sync command request], the server will delete that property from the note.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+seconds       = ("0" DIGIT) / ("1" DIGIT) / ("2" DIGIT) / ("3" DIGIT) / ("4" DIGIT) / ("5" DIGIT)</t>
+  </si>
+  <si>
+    <t>2.7.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1440,7 +1436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1449,13 +1445,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1488,8 +1484,8 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1513,20 +1509,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1551,6 +1535,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2158,7 +2157,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2193,7 +2192,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2409,22 +2408,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="9" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -2434,7 +2433,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2449,7 +2448,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
@@ -2461,128 +2460,128 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -2595,12 +2594,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -2613,12 +2612,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -2631,12 +2630,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -2649,60 +2648,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -2743,7 +2742,7 @@
         <v>169</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22" t="s">
@@ -2768,7 +2767,7 @@
         <v>169</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22" t="s">
@@ -2793,7 +2792,7 @@
         <v>170</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
@@ -2818,7 +2817,7 @@
         <v>170</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
@@ -2843,7 +2842,7 @@
         <v>171</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
@@ -2868,7 +2867,7 @@
         <v>171</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
@@ -2893,7 +2892,7 @@
         <v>171</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
@@ -2918,7 +2917,7 @@
         <v>171</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
@@ -2943,7 +2942,7 @@
         <v>171</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
@@ -2968,7 +2967,7 @@
         <v>171</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22" t="s">
@@ -2993,7 +2992,7 @@
         <v>171</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
@@ -3018,7 +3017,7 @@
         <v>171</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22" t="s">
@@ -3035,7 +3034,7 @@
       </c>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:12" s="23" customFormat="1">
+    <row r="32" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A32" s="22" t="s">
         <v>55</v>
       </c>
@@ -3043,7 +3042,7 @@
         <v>172</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
@@ -3068,7 +3067,7 @@
         <v>172</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
@@ -3093,7 +3092,7 @@
         <v>172</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30" t="s">
@@ -3110,7 +3109,7 @@
       </c>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:9" ht="45">
+    <row r="35" spans="1:9" ht="60">
       <c r="A35" s="30" t="s">
         <v>58</v>
       </c>
@@ -3118,7 +3117,7 @@
         <v>172</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="30" t="s">
@@ -3143,7 +3142,7 @@
         <v>172</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D36" s="30"/>
       <c r="E36" s="30" t="s">
@@ -3168,7 +3167,7 @@
         <v>172</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D37" s="30"/>
       <c r="E37" s="30" t="s">
@@ -3185,7 +3184,7 @@
       </c>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:9" ht="45">
+    <row r="38" spans="1:9" ht="60">
       <c r="A38" s="30" t="s">
         <v>61</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>172</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D38" s="30"/>
       <c r="E38" s="30" t="s">
@@ -3218,7 +3217,7 @@
         <v>172</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D39" s="30"/>
       <c r="E39" s="30" t="s">
@@ -3235,7 +3234,7 @@
       </c>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" spans="1:9" ht="30">
+    <row r="40" spans="1:9" ht="45">
       <c r="A40" s="30" t="s">
         <v>63</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>172</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="30" t="s">
@@ -3268,7 +3267,7 @@
         <v>172</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="30" t="s">
@@ -3293,7 +3292,7 @@
         <v>172</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="30" t="s">
@@ -3318,7 +3317,7 @@
         <v>172</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="30" t="s">
@@ -3343,7 +3342,7 @@
         <v>172</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="30" t="s">
@@ -3360,7 +3359,7 @@
       </c>
       <c r="I44" s="32"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" ht="30">
       <c r="A45" s="30" t="s">
         <v>68</v>
       </c>
@@ -3368,7 +3367,7 @@
         <v>172</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="30" t="s">
@@ -3385,7 +3384,7 @@
       </c>
       <c r="I45" s="32"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" ht="30">
       <c r="A46" s="30" t="s">
         <v>69</v>
       </c>
@@ -3393,7 +3392,7 @@
         <v>172</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="30" t="s">
@@ -3418,7 +3417,7 @@
         <v>173</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30" t="s">
@@ -3443,7 +3442,7 @@
         <v>173</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30" t="s">
@@ -3460,7 +3459,7 @@
       </c>
       <c r="I48" s="32"/>
     </row>
-    <row r="49" spans="1:9" ht="30">
+    <row r="49" spans="1:9" ht="45">
       <c r="A49" s="30" t="s">
         <v>72</v>
       </c>
@@ -3468,7 +3467,7 @@
         <v>173</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30" t="s">
@@ -3493,7 +3492,7 @@
         <v>173</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="30" t="s">
@@ -3518,7 +3517,7 @@
         <v>173</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="30" t="s">
@@ -3543,7 +3542,7 @@
         <v>173</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D52" s="30"/>
       <c r="E52" s="30" t="s">
@@ -3560,7 +3559,7 @@
       </c>
       <c r="I52" s="32"/>
     </row>
-    <row r="53" spans="1:9" ht="30">
+    <row r="53" spans="1:9" ht="45">
       <c r="A53" s="30" t="s">
         <v>76</v>
       </c>
@@ -3568,7 +3567,7 @@
         <v>173</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D53" s="30"/>
       <c r="E53" s="30" t="s">
@@ -3593,7 +3592,7 @@
         <v>173</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D54" s="30"/>
       <c r="E54" s="30" t="s">
@@ -3610,7 +3609,7 @@
       </c>
       <c r="I54" s="32"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" ht="30">
       <c r="A55" s="30" t="s">
         <v>78</v>
       </c>
@@ -3618,7 +3617,7 @@
         <v>173</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D55" s="30"/>
       <c r="E55" s="30" t="s">
@@ -3643,7 +3642,7 @@
         <v>174</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D56" s="30"/>
       <c r="E56" s="30" t="s">
@@ -3668,7 +3667,7 @@
         <v>174</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30" t="s">
@@ -3693,7 +3692,7 @@
         <v>174</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D58" s="30"/>
       <c r="E58" s="30" t="s">
@@ -3710,7 +3709,7 @@
       </c>
       <c r="I58" s="32"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" ht="30">
       <c r="A59" s="30" t="s">
         <v>82</v>
       </c>
@@ -3718,7 +3717,7 @@
         <v>175</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D59" s="30"/>
       <c r="E59" s="30" t="s">
@@ -3735,7 +3734,7 @@
       </c>
       <c r="I59" s="32"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" ht="30">
       <c r="A60" s="30" t="s">
         <v>83</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>175</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D60" s="30"/>
       <c r="E60" s="30" t="s">
@@ -3768,7 +3767,7 @@
         <v>175</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D61" s="30"/>
       <c r="E61" s="30" t="s">
@@ -3793,7 +3792,7 @@
         <v>175</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="30" t="s">
@@ -3810,7 +3809,7 @@
       </c>
       <c r="I62" s="32"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" ht="30">
       <c r="A63" s="30" t="s">
         <v>86</v>
       </c>
@@ -3818,7 +3817,7 @@
         <v>176</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D63" s="30"/>
       <c r="E63" s="30" t="s">
@@ -3835,7 +3834,7 @@
       </c>
       <c r="I63" s="32"/>
     </row>
-    <row r="64" spans="1:9" ht="30">
+    <row r="64" spans="1:9" ht="45">
       <c r="A64" s="30" t="s">
         <v>87</v>
       </c>
@@ -3843,7 +3842,7 @@
         <v>176</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30" t="s">
@@ -3868,7 +3867,7 @@
         <v>176</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D65" s="30"/>
       <c r="E65" s="30" t="s">
@@ -3893,7 +3892,7 @@
         <v>177</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D66" s="30"/>
       <c r="E66" s="30" t="s">
@@ -3918,7 +3917,7 @@
         <v>177</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D67" s="30"/>
       <c r="E67" s="30" t="s">
@@ -3943,7 +3942,7 @@
         <v>177</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="30" t="s">
@@ -3960,7 +3959,7 @@
       </c>
       <c r="I68" s="32"/>
     </row>
-    <row r="69" spans="1:9" ht="30">
+    <row r="69" spans="1:9" ht="45">
       <c r="A69" s="30" t="s">
         <v>92</v>
       </c>
@@ -3968,7 +3967,7 @@
         <v>177</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D69" s="30"/>
       <c r="E69" s="30" t="s">
@@ -3993,7 +3992,7 @@
         <v>178</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D70" s="30"/>
       <c r="E70" s="30" t="s">
@@ -4018,7 +4017,7 @@
         <v>178</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D71" s="30"/>
       <c r="E71" s="30" t="s">
@@ -4035,7 +4034,7 @@
       </c>
       <c r="I71" s="32"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="30" t="s">
         <v>95</v>
       </c>
@@ -4043,7 +4042,7 @@
         <v>178</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D72" s="30"/>
       <c r="E72" s="30" t="s">
@@ -4068,7 +4067,7 @@
         <v>179</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D73" s="30"/>
       <c r="E73" s="30" t="s">
@@ -4093,7 +4092,7 @@
         <v>179</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D74" s="30"/>
       <c r="E74" s="30" t="s">
@@ -4118,7 +4117,7 @@
         <v>179</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D75" s="30"/>
       <c r="E75" s="30" t="s">
@@ -4143,7 +4142,7 @@
         <v>179</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D76" s="30"/>
       <c r="E76" s="30" t="s">
@@ -4168,7 +4167,7 @@
         <v>179</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D77" s="30"/>
       <c r="E77" s="30" t="s">
@@ -4193,7 +4192,7 @@
         <v>179</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D78" s="30"/>
       <c r="E78" s="30" t="s">
@@ -4218,7 +4217,7 @@
         <v>179</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D79" s="30"/>
       <c r="E79" s="30" t="s">
@@ -4235,7 +4234,7 @@
       </c>
       <c r="I79" s="32"/>
     </row>
-    <row r="80" spans="1:9" ht="30">
+    <row r="80" spans="1:9" ht="45">
       <c r="A80" s="30" t="s">
         <v>103</v>
       </c>
@@ -4243,7 +4242,7 @@
         <v>32</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D80" s="30"/>
       <c r="E80" s="30" t="s">
@@ -4268,7 +4267,7 @@
         <v>33</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="30" t="s">
@@ -4285,7 +4284,7 @@
       </c>
       <c r="I81" s="32"/>
     </row>
-    <row r="82" spans="1:9" ht="45">
+    <row r="82" spans="1:9" ht="60">
       <c r="A82" s="30" t="s">
         <v>105</v>
       </c>
@@ -4293,7 +4292,7 @@
         <v>180</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D82" s="30"/>
       <c r="E82" s="30" t="s">
@@ -4310,7 +4309,7 @@
       </c>
       <c r="I82" s="32"/>
     </row>
-    <row r="83" spans="1:9" ht="30">
+    <row r="83" spans="1:9" ht="45">
       <c r="A83" s="30" t="s">
         <v>106</v>
       </c>
@@ -4318,7 +4317,7 @@
         <v>181</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30" t="s">
@@ -4343,7 +4342,7 @@
         <v>181</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D84" s="30"/>
       <c r="E84" s="30" t="s">
@@ -4360,7 +4359,7 @@
       </c>
       <c r="I84" s="32"/>
     </row>
-    <row r="85" spans="1:9" ht="60">
+    <row r="85" spans="1:9" ht="75">
       <c r="A85" s="30" t="s">
         <v>108</v>
       </c>
@@ -4368,7 +4367,7 @@
         <v>182</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30" t="s">
@@ -4393,7 +4392,7 @@
         <v>183</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D86" s="30"/>
       <c r="E86" s="30" t="s">
@@ -4418,7 +4417,7 @@
         <v>183</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D87" s="30"/>
       <c r="E87" s="30" t="s">
@@ -4435,7 +4434,7 @@
       </c>
       <c r="I87" s="32"/>
     </row>
-    <row r="88" spans="1:9" ht="30">
+    <row r="88" spans="1:9" ht="45">
       <c r="A88" s="30" t="s">
         <v>111</v>
       </c>
@@ -4443,7 +4442,7 @@
         <v>184</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="30" t="s">
@@ -4460,7 +4459,7 @@
       </c>
       <c r="I88" s="32"/>
     </row>
-    <row r="89" spans="1:9" ht="60">
+    <row r="89" spans="1:9" ht="75">
       <c r="A89" s="30" t="s">
         <v>112</v>
       </c>
@@ -4468,7 +4467,7 @@
         <v>184</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D89" s="30"/>
       <c r="E89" s="30" t="s">
@@ -4493,7 +4492,7 @@
         <v>184</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D90" s="30"/>
       <c r="E90" s="30" t="s">
@@ -4518,7 +4517,7 @@
         <v>184</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D91" s="30"/>
       <c r="E91" s="30" t="s">
@@ -4543,7 +4542,7 @@
         <v>185</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D92" s="30"/>
       <c r="E92" s="30" t="s">
@@ -4560,7 +4559,7 @@
       </c>
       <c r="I92" s="32"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" ht="30">
       <c r="A93" s="30" t="s">
         <v>116</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v>185</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D93" s="30"/>
       <c r="E93" s="30" t="s">
@@ -4585,7 +4584,7 @@
       </c>
       <c r="I93" s="32"/>
     </row>
-    <row r="94" spans="1:9" ht="30">
+    <row r="94" spans="1:9" ht="45">
       <c r="A94" s="30" t="s">
         <v>117</v>
       </c>
@@ -4593,7 +4592,7 @@
         <v>186</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D94" s="30"/>
       <c r="E94" s="30" t="s">
@@ -4618,7 +4617,7 @@
         <v>187</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D95" s="30"/>
       <c r="E95" s="30" t="s">
@@ -4643,7 +4642,7 @@
         <v>187</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D96" s="30"/>
       <c r="E96" s="30" t="s">
@@ -4668,7 +4667,7 @@
         <v>187</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D97" s="30"/>
       <c r="E97" s="30" t="s">
@@ -4693,7 +4692,7 @@
         <v>187</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D98" s="30"/>
       <c r="E98" s="30" t="s">
@@ -4718,7 +4717,7 @@
         <v>187</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D99" s="30"/>
       <c r="E99" s="30" t="s">
@@ -4735,7 +4734,7 @@
       </c>
       <c r="I99" s="32"/>
     </row>
-    <row r="100" spans="1:9" ht="30">
+    <row r="100" spans="1:9" ht="45">
       <c r="A100" s="30" t="s">
         <v>123</v>
       </c>
@@ -4743,7 +4742,7 @@
         <v>187</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30" t="s">
@@ -4768,7 +4767,7 @@
         <v>187</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D101" s="30"/>
       <c r="E101" s="30" t="s">
@@ -4793,7 +4792,7 @@
         <v>187</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D102" s="30"/>
       <c r="E102" s="30" t="s">
@@ -4818,7 +4817,7 @@
         <v>188</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D103" s="30"/>
       <c r="E103" s="30" t="s">
@@ -4835,7 +4834,7 @@
       </c>
       <c r="I103" s="32"/>
     </row>
-    <row r="104" spans="1:9" ht="30">
+    <row r="104" spans="1:9" ht="45">
       <c r="A104" s="30" t="s">
         <v>127</v>
       </c>
@@ -4843,7 +4842,7 @@
         <v>188</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D104" s="30"/>
       <c r="E104" s="30" t="s">
@@ -4868,7 +4867,7 @@
         <v>189</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D105" s="30"/>
       <c r="E105" s="30" t="s">
@@ -4893,7 +4892,7 @@
         <v>189</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D106" s="30"/>
       <c r="E106" s="30" t="s">
@@ -4918,7 +4917,7 @@
         <v>190</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D107" s="30"/>
       <c r="E107" s="30" t="s">
@@ -4935,7 +4934,7 @@
       </c>
       <c r="I107" s="32"/>
     </row>
-    <row r="108" spans="1:9" ht="30">
+    <row r="108" spans="1:9" ht="45">
       <c r="A108" s="30" t="s">
         <v>131</v>
       </c>
@@ -4943,7 +4942,7 @@
         <v>190</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D108" s="30"/>
       <c r="E108" s="30" t="s">
@@ -4960,7 +4959,7 @@
       </c>
       <c r="I108" s="32"/>
     </row>
-    <row r="109" spans="1:9" ht="45">
+    <row r="109" spans="1:9" ht="60">
       <c r="A109" s="30" t="s">
         <v>132</v>
       </c>
@@ -4968,7 +4967,7 @@
         <v>191</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D109" s="30"/>
       <c r="E109" s="30" t="s">
@@ -4993,7 +4992,7 @@
         <v>191</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D110" s="30"/>
       <c r="E110" s="30" t="s">
@@ -5010,7 +5009,7 @@
       </c>
       <c r="I110" s="32"/>
     </row>
-    <row r="111" spans="1:9" ht="60">
+    <row r="111" spans="1:9" ht="75">
       <c r="A111" s="30" t="s">
         <v>134</v>
       </c>
@@ -5018,7 +5017,7 @@
         <v>191</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D111" s="30"/>
       <c r="E111" s="30" t="s">
@@ -5035,7 +5034,7 @@
       </c>
       <c r="I111" s="32"/>
     </row>
-    <row r="112" spans="1:9" ht="45">
+    <row r="112" spans="1:9" ht="60">
       <c r="A112" s="30" t="s">
         <v>135</v>
       </c>
@@ -5043,7 +5042,7 @@
         <v>191</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D112" s="30"/>
       <c r="E112" s="30" t="s">
@@ -5060,7 +5059,7 @@
       </c>
       <c r="I112" s="32"/>
     </row>
-    <row r="113" spans="1:9" ht="45">
+    <row r="113" spans="1:9" ht="60">
       <c r="A113" s="30" t="s">
         <v>136</v>
       </c>
@@ -5068,7 +5067,7 @@
         <v>192</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D113" s="30"/>
       <c r="E113" s="30" t="s">
@@ -5093,7 +5092,7 @@
         <v>192</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D114" s="30"/>
       <c r="E114" s="30" t="s">
@@ -5110,7 +5109,7 @@
       </c>
       <c r="I114" s="32"/>
     </row>
-    <row r="115" spans="1:9" ht="45">
+    <row r="115" spans="1:9" ht="60">
       <c r="A115" s="30" t="s">
         <v>138</v>
       </c>
@@ -5118,7 +5117,7 @@
         <v>192</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D115" s="30"/>
       <c r="E115" s="30" t="s">
@@ -5135,7 +5134,7 @@
       </c>
       <c r="I115" s="32"/>
     </row>
-    <row r="116" spans="1:9" ht="45">
+    <row r="116" spans="1:9" ht="60">
       <c r="A116" s="30" t="s">
         <v>139</v>
       </c>
@@ -5143,7 +5142,7 @@
         <v>193</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D116" s="30"/>
       <c r="E116" s="30" t="s">
@@ -5160,7 +5159,7 @@
       </c>
       <c r="I116" s="32"/>
     </row>
-    <row r="117" spans="1:9" ht="75">
+    <row r="117" spans="1:9" ht="90">
       <c r="A117" s="30" t="s">
         <v>140</v>
       </c>
@@ -5168,7 +5167,7 @@
         <v>193</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D117" s="30"/>
       <c r="E117" s="30" t="s">
@@ -5185,7 +5184,7 @@
       </c>
       <c r="I117" s="32"/>
     </row>
-    <row r="118" spans="1:9" ht="75">
+    <row r="118" spans="1:9" ht="90">
       <c r="A118" s="30" t="s">
         <v>141</v>
       </c>
@@ -5193,7 +5192,7 @@
         <v>193</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D118" s="30"/>
       <c r="E118" s="30" t="s">
@@ -5210,7 +5209,7 @@
       </c>
       <c r="I118" s="32"/>
     </row>
-    <row r="119" spans="1:9" ht="30">
+    <row r="119" spans="1:9" ht="45">
       <c r="A119" s="30" t="s">
         <v>142</v>
       </c>
@@ -5218,7 +5217,7 @@
         <v>193</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D119" s="30"/>
       <c r="E119" s="30" t="s">
@@ -5235,7 +5234,7 @@
       </c>
       <c r="I119" s="32"/>
     </row>
-    <row r="120" spans="1:9" ht="30">
+    <row r="120" spans="1:9" ht="45">
       <c r="A120" s="30" t="s">
         <v>143</v>
       </c>
@@ -5243,7 +5242,7 @@
         <v>193</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D120" s="30"/>
       <c r="E120" s="30" t="s">
@@ -5268,7 +5267,7 @@
         <v>193</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D121" s="30"/>
       <c r="E121" s="30" t="s">
@@ -5293,7 +5292,7 @@
         <v>193</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D122" s="30"/>
       <c r="E122" s="30" t="s">
@@ -5318,7 +5317,7 @@
         <v>193</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D123" s="30"/>
       <c r="E123" s="30" t="s">
@@ -5343,7 +5342,7 @@
         <v>193</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D124" s="30"/>
       <c r="E124" s="30" t="s">
@@ -5368,7 +5367,7 @@
         <v>194</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D125" s="30"/>
       <c r="E125" s="30" t="s">
@@ -5393,7 +5392,7 @@
         <v>194</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D126" s="30"/>
       <c r="E126" s="30" t="s">
@@ -5410,7 +5409,7 @@
       </c>
       <c r="I126" s="32"/>
     </row>
-    <row r="127" spans="1:9" ht="30">
+    <row r="127" spans="1:9" ht="45">
       <c r="A127" s="30" t="s">
         <v>150</v>
       </c>
@@ -5418,7 +5417,7 @@
         <v>194</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D127" s="30"/>
       <c r="E127" s="30" t="s">
@@ -5443,7 +5442,7 @@
         <v>195</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D128" s="30"/>
       <c r="E128" s="30" t="s">
@@ -5468,7 +5467,7 @@
         <v>196</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D129" s="30"/>
       <c r="E129" s="30" t="s">
@@ -5493,7 +5492,7 @@
         <v>196</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D130" s="30"/>
       <c r="E130" s="30" t="s">
@@ -5510,7 +5509,7 @@
       </c>
       <c r="I130" s="32"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" ht="30">
       <c r="A131" s="30" t="s">
         <v>154</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>197</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D131" s="30"/>
       <c r="E131" s="30" t="s">
@@ -5543,7 +5542,7 @@
         <v>198</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D132" s="30"/>
       <c r="E132" s="30" t="s">
@@ -5568,7 +5567,7 @@
         <v>198</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D133" s="30"/>
       <c r="E133" s="30" t="s">
@@ -5593,7 +5592,7 @@
         <v>198</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D134" s="30"/>
       <c r="E134" s="30" t="s">
@@ -5618,7 +5617,7 @@
         <v>198</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D135" s="30"/>
       <c r="E135" s="30" t="s">
@@ -5643,7 +5642,7 @@
         <v>198</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D136" s="30"/>
       <c r="E136" s="30" t="s">
@@ -5668,7 +5667,7 @@
         <v>199</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D137" s="30"/>
       <c r="E137" s="30" t="s">
@@ -5693,7 +5692,7 @@
         <v>170</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D138" s="30"/>
       <c r="E138" s="30" t="s">
@@ -5718,7 +5717,7 @@
         <v>170</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D139" s="30"/>
       <c r="E139" s="30" t="s">
@@ -5739,11 +5738,11 @@
       <c r="A140" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="B140" s="31" t="s">
-        <v>200</v>
+      <c r="B140" s="34">
+        <v>2.7</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D140" s="30"/>
       <c r="E140" s="30" t="s">
@@ -5764,11 +5763,11 @@
       <c r="A141" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="B141" s="31" t="s">
-        <v>200</v>
+      <c r="B141" s="34">
+        <v>2.7</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D141" s="30"/>
       <c r="E141" s="30" t="s">
@@ -5789,11 +5788,11 @@
       <c r="A142" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B142" s="31" t="s">
-        <v>200</v>
+      <c r="B142" s="34">
+        <v>2.7</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D142" s="30"/>
       <c r="E142" s="30" t="s">
@@ -5814,11 +5813,11 @@
       <c r="A143" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="B143" s="31" t="s">
-        <v>200</v>
+      <c r="B143" s="34">
+        <v>2.7</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D143" s="30"/>
       <c r="E143" s="30" t="s">
@@ -5839,11 +5838,11 @@
       <c r="A144" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="B144" s="31" t="s">
-        <v>201</v>
+      <c r="B144" s="24" t="s">
+        <v>326</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D144" s="30"/>
       <c r="E144" s="30" t="s">
@@ -5860,15 +5859,15 @@
       </c>
       <c r="I144" s="32"/>
     </row>
-    <row r="145" spans="1:9" ht="150">
+    <row r="145" spans="1:9" ht="135">
       <c r="A145" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="B145" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C145" s="32" t="s">
-        <v>322</v>
+      <c r="B145" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>325</v>
       </c>
       <c r="D145" s="30"/>
       <c r="E145" s="30" t="s">
@@ -5895,6 +5894,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -5902,11 +5906,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I20:I128 A20:H122 A34:I145">
@@ -5963,7 +5962,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="C3 B129:B130 B19:B128 B131:B147" numberStoredAsText="1"/>
+    <ignoredError sqref="C3 B129:B130 B19:B128 B131:B145 B146:B147" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -5979,15 +5978,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -6036,6 +6026,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
@@ -6051,14 +6050,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6071,4 +6062,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ExchangeActiveSync/Docs/MS-ASNOTE/MS-ASNOTE_RequirementSpecification.xlsx
+++ b/ExchangeActiveSync/Docs/MS-ASNOTE/MS-ASNOTE_RequirementSpecification.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB783CE-1EBB-4744-AF20-182EAC955C43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$175</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -20,15 +21,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="tmp98CF" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="tmp98CF" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\v-penj\AppData\Local\Temp\tmp98CF.tmp" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="387">
   <si>
     <t>Req ID</t>
   </si>
@@ -995,9 +996,6 @@
     <t>[In MessageClass] The value of the MessageClass element MUST be either "IPM.StickyNote" or "IPM.StickyNote.*", where "*" represents an arbitrary string chosen by the client or server.</t>
   </si>
   <si>
-    <t>[In Subject] The Subject element specifies the subject of the note.</t>
-  </si>
-  <si>
     <t>[In Subject] It[Subject] is defined as an element in the Notes namespace and is used in ActiveSync command requests and responses as specified in section 2.2.2.</t>
   </si>
   <si>
@@ -1235,11 +1233,194 @@
   <si>
     <t>2.7.5</t>
   </si>
+  <si>
+    <t>[In Body] Protocol version 14.0 supports this [In Body] element.</t>
+  </si>
+  <si>
+    <t>[In Body] Protocol version 14.1 supports this [In Body] element.</t>
+  </si>
+  <si>
+    <t>[In Body] Protocol version 16.0 supports this [In Body] element.</t>
+  </si>
+  <si>
+    <t>[In Body] Protocol version 16.1 supports this [In Body] element.</t>
+  </si>
+  <si>
+    <t>[In Body] Protocol version 12.1 does not supports this [In Body] element.</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R43001</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R43002</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R43003</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R43004</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R43005</t>
+  </si>
+  <si>
+    <t>[In Category] Protocol version 12.1 does not supports this [In Category] element.</t>
+  </si>
+  <si>
+    <t>[In Category] Protocol version 14.0 supports this [In Category] element.</t>
+  </si>
+  <si>
+    <t>[In Category] Protocol version 14.1 supports this [In Category] element.</t>
+  </si>
+  <si>
+    <t>[In Category] Protocol version 16.0 supports this [In Category] element.</t>
+  </si>
+  <si>
+    <t>[In Category] Protocol version 16.1 supports this [In Category] element.</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R50001</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R50002</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R50003</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R50004</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R50005</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R47001</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R47002</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R47003</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R47004</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R47005</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R60001</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R60002</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R60003</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R60004</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R60005</t>
+  </si>
+  <si>
+    <t>[In Subject] Protocol version 16.1 supports this [In Subject] element.</t>
+  </si>
+  <si>
+    <t>[In Subject] Protocol version 16.0 supports this [In Subject] element.</t>
+  </si>
+  <si>
+    <t>[In Subject] Protocol version 14.1 supports this [In Subject] element.</t>
+  </si>
+  <si>
+    <t>[In Subject] Protocol version 14.0 supports this [In Subject] element.</t>
+  </si>
+  <si>
+    <t>[In Subject] Protocol version 12.1 does not supports this [In Subject] element.</t>
+  </si>
+  <si>
+    <t>[In MessageClass] The Subject element specifies the subject of the note.</t>
+  </si>
+  <si>
+    <t>[In MessageClass] Protocol version 16.1 supports this [In MessageClass] element.</t>
+  </si>
+  <si>
+    <t>[In MessageClass] Protocol version 16.0 supports this [In MessageClass] element.</t>
+  </si>
+  <si>
+    <t>[In MessageClass] Protocol version 14.1 supports this [In MessageClass] element.</t>
+  </si>
+  <si>
+    <t>[In MessageClass] Protocol version 14.0 supports this [In MessageClass] element.</t>
+  </si>
+  <si>
+    <t>[In MessageClass] Protocol version 12.1 does not supports this [In MessageClass] element.</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R58001</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R58002</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R58003</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R58004</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R58005</t>
+  </si>
+  <si>
+    <t>[In LastModifiedDate] Protocol version 16.1 supports this [In LastModifiedDate] element.</t>
+  </si>
+  <si>
+    <t>[In LastModifiedDate] Protocol version 16.0 supports this [In LastModifiedDate] element.</t>
+  </si>
+  <si>
+    <t>[In LastModifiedDate] Protocol version 14.1 supports this [In LastModifiedDate] element.</t>
+  </si>
+  <si>
+    <t>[In LastModifiedDate] Protocol version 14.0 supports this [In LastModifiedDate] element.</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R53001</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R53002</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R53003</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R53004</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R53005</t>
+  </si>
+  <si>
+    <t>[In LastModifiedDate] Protocol version 12.1 does not supports this [In LastModifiedDate] element.</t>
+  </si>
+  <si>
+    <t>[In Categories] Protocol version 12.1 does not supports this [In Categories] element.</t>
+  </si>
+  <si>
+    <t>[In Categories] Protocol version 14.0 supports this [In Categories] element.</t>
+  </si>
+  <si>
+    <t>[In Categories] Protocol version 14.1 supports this [In Categories] element.</t>
+  </si>
+  <si>
+    <t>[In Categories] Protocol version 16.0 supports this [In Categories] element.</t>
+  </si>
+  <si>
+    <t>[In Categories] Protocol version 16.1 supports this [In Categories] element.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -1512,6 +1693,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1536,26 +1732,782 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="137">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1719,223 +2671,6 @@
         <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
       </font>
     </dxf>
   </dxfs>
@@ -2067,34 +2802,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I145" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I145"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I175" tableType="xml" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127" connectionId="1">
+  <autoFilter ref="A19:I175" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="126">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="125">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="124">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="123">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="122">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="121">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="120">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="119">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="118">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -2103,12 +2838,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A12:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="136" dataDxfId="134" headerRowBorderDxfId="135" tableBorderDxfId="133" totalsRowBorderDxfId="132">
+  <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="131"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="130"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="129"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2190,6 +2925,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2225,6 +2977,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2400,15 +3169,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L147"/>
+  <dimension ref="A1:L177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
@@ -2423,7 +3194,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -2433,7 +3204,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2448,7 +3219,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
@@ -2460,128 +3231,128 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -2594,12 +3365,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -2612,12 +3383,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -2630,12 +3401,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -2648,60 +3419,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -3613,7 +4384,7 @@
       <c r="A55" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C55" s="32" t="s">
@@ -3627,22 +4398,22 @@
         <v>3</v>
       </c>
       <c r="G55" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H55" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I55" s="32"/>
     </row>
-    <row r="56" spans="1:9" ht="30">
-      <c r="A56" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>236</v>
+    <row r="56" spans="1:9">
+      <c r="A56" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>330</v>
       </c>
       <c r="D56" s="30"/>
       <c r="E56" s="30" t="s">
@@ -3655,19 +4426,19 @@
         <v>15</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I56" s="32"/>
     </row>
-    <row r="57" spans="1:9" ht="30">
-      <c r="A57" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>237</v>
+    <row r="57" spans="1:9">
+      <c r="A57" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>326</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30" t="s">
@@ -3677,22 +4448,22 @@
         <v>3</v>
       </c>
       <c r="G57" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H57" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I57" s="32"/>
     </row>
-    <row r="58" spans="1:9" ht="30">
-      <c r="A58" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>238</v>
+    <row r="58" spans="1:9">
+      <c r="A58" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>327</v>
       </c>
       <c r="D58" s="30"/>
       <c r="E58" s="30" t="s">
@@ -3705,19 +4476,19 @@
         <v>15</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I58" s="32"/>
     </row>
-    <row r="59" spans="1:9" ht="30">
-      <c r="A59" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>239</v>
+    <row r="59" spans="1:9">
+      <c r="A59" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>328</v>
       </c>
       <c r="D59" s="30"/>
       <c r="E59" s="30" t="s">
@@ -3727,22 +4498,22 @@
         <v>3</v>
       </c>
       <c r="G59" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H59" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I59" s="32"/>
     </row>
-    <row r="60" spans="1:9" ht="30">
-      <c r="A60" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>240</v>
+    <row r="60" spans="1:9">
+      <c r="A60" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>329</v>
       </c>
       <c r="D60" s="30"/>
       <c r="E60" s="30" t="s">
@@ -3755,19 +4526,19 @@
         <v>15</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I60" s="32"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" ht="30">
       <c r="A61" s="30" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D61" s="30"/>
       <c r="E61" s="30" t="s">
@@ -3777,22 +4548,22 @@
         <v>3</v>
       </c>
       <c r="G61" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H61" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I61" s="32"/>
     </row>
     <row r="62" spans="1:9" ht="30">
       <c r="A62" s="30" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="30" t="s">
@@ -3802,22 +4573,22 @@
         <v>3</v>
       </c>
       <c r="G62" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I62" s="32"/>
     </row>
     <row r="63" spans="1:9" ht="30">
       <c r="A63" s="30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D63" s="30"/>
       <c r="E63" s="30" t="s">
@@ -3830,19 +4601,19 @@
         <v>15</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I63" s="32"/>
     </row>
-    <row r="64" spans="1:9" ht="45">
-      <c r="A64" s="30" t="s">
-        <v>87</v>
+    <row r="64" spans="1:9">
+      <c r="A64" s="22" t="s">
+        <v>346</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>244</v>
+        <v>174</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>382</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30" t="s">
@@ -3852,22 +4623,22 @@
         <v>3</v>
       </c>
       <c r="G64" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H64" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I64" s="32"/>
     </row>
-    <row r="65" spans="1:9" ht="30">
-      <c r="A65" s="30" t="s">
-        <v>88</v>
+    <row r="65" spans="1:9">
+      <c r="A65" s="22" t="s">
+        <v>347</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>245</v>
+        <v>174</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>383</v>
       </c>
       <c r="D65" s="30"/>
       <c r="E65" s="30" t="s">
@@ -3880,19 +4651,19 @@
         <v>15</v>
       </c>
       <c r="H65" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I65" s="32"/>
     </row>
-    <row r="66" spans="1:9" ht="30">
-      <c r="A66" s="30" t="s">
-        <v>89</v>
+    <row r="66" spans="1:9">
+      <c r="A66" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>246</v>
+        <v>174</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>384</v>
       </c>
       <c r="D66" s="30"/>
       <c r="E66" s="30" t="s">
@@ -3905,19 +4676,19 @@
         <v>15</v>
       </c>
       <c r="H66" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I66" s="32"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="30" t="s">
-        <v>90</v>
+      <c r="A67" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>247</v>
+        <v>174</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>385</v>
       </c>
       <c r="D67" s="30"/>
       <c r="E67" s="30" t="s">
@@ -3927,22 +4698,22 @@
         <v>3</v>
       </c>
       <c r="G67" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H67" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I67" s="32"/>
     </row>
-    <row r="68" spans="1:9" ht="30">
-      <c r="A68" s="30" t="s">
-        <v>91</v>
+    <row r="68" spans="1:9">
+      <c r="A68" s="22" t="s">
+        <v>350</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>248</v>
+        <v>174</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>386</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="30" t="s">
@@ -3955,19 +4726,19 @@
         <v>15</v>
       </c>
       <c r="H68" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I68" s="32"/>
     </row>
-    <row r="69" spans="1:9" ht="45">
+    <row r="69" spans="1:9" ht="30">
       <c r="A69" s="30" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D69" s="30"/>
       <c r="E69" s="30" t="s">
@@ -3977,22 +4748,22 @@
         <v>3</v>
       </c>
       <c r="G69" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" ht="30">
       <c r="A70" s="30" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D70" s="30"/>
       <c r="E70" s="30" t="s">
@@ -4009,15 +4780,15 @@
       </c>
       <c r="I70" s="32"/>
     </row>
-    <row r="71" spans="1:9" ht="30">
+    <row r="71" spans="1:9">
       <c r="A71" s="30" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D71" s="30"/>
       <c r="E71" s="30" t="s">
@@ -4036,13 +4807,13 @@
     </row>
     <row r="72" spans="1:9" ht="30">
       <c r="A72" s="30" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D72" s="30"/>
       <c r="E72" s="30" t="s">
@@ -4059,90 +4830,90 @@
       </c>
       <c r="I72" s="32"/>
     </row>
-    <row r="73" spans="1:9" ht="30">
-      <c r="A73" s="30" t="s">
-        <v>96</v>
+    <row r="73" spans="1:9">
+      <c r="A73" s="22" t="s">
+        <v>341</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>253</v>
+        <v>175</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>336</v>
       </c>
       <c r="D73" s="30"/>
       <c r="E73" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G73" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H73" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I73" s="32"/>
     </row>
-    <row r="74" spans="1:9" ht="30">
-      <c r="A74" s="30" t="s">
-        <v>97</v>
+    <row r="74" spans="1:9">
+      <c r="A74" s="22" t="s">
+        <v>342</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>254</v>
+        <v>175</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>337</v>
       </c>
       <c r="D74" s="30"/>
       <c r="E74" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F74" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G74" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H74" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I74" s="32"/>
     </row>
-    <row r="75" spans="1:9" ht="45">
-      <c r="A75" s="30" t="s">
-        <v>98</v>
+    <row r="75" spans="1:9">
+      <c r="A75" s="22" t="s">
+        <v>343</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>255</v>
+        <v>175</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>338</v>
       </c>
       <c r="D75" s="30"/>
       <c r="E75" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F75" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G75" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H75" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I75" s="32"/>
     </row>
-    <row r="76" spans="1:9" ht="30">
-      <c r="A76" s="30" t="s">
-        <v>99</v>
+    <row r="76" spans="1:9">
+      <c r="A76" s="22" t="s">
+        <v>344</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>256</v>
+        <v>175</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>339</v>
       </c>
       <c r="D76" s="30"/>
       <c r="E76" s="30" t="s">
@@ -4152,32 +4923,32 @@
         <v>3</v>
       </c>
       <c r="G76" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H76" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I76" s="32"/>
     </row>
-    <row r="77" spans="1:9" ht="30">
-      <c r="A77" s="30" t="s">
-        <v>100</v>
+    <row r="77" spans="1:9">
+      <c r="A77" s="22" t="s">
+        <v>345</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>257</v>
+        <v>175</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>340</v>
       </c>
       <c r="D77" s="30"/>
       <c r="E77" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F77" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G77" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H77" s="30" t="s">
         <v>18</v>
@@ -4186,45 +4957,45 @@
     </row>
     <row r="78" spans="1:9" ht="30">
       <c r="A78" s="30" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D78" s="30"/>
       <c r="E78" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F78" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G78" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I78" s="32"/>
     </row>
-    <row r="79" spans="1:9" ht="30">
+    <row r="79" spans="1:9" ht="45">
       <c r="A79" s="30" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D79" s="30"/>
       <c r="E79" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F79" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G79" s="30" t="s">
         <v>16</v>
@@ -4234,47 +5005,47 @@
       </c>
       <c r="I79" s="32"/>
     </row>
-    <row r="80" spans="1:9" ht="45">
+    <row r="80" spans="1:9" ht="30">
       <c r="A80" s="30" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="32" t="s">
-        <v>260</v>
+        <v>176</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>245</v>
       </c>
       <c r="D80" s="30"/>
       <c r="E80" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F80" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G80" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I80" s="32"/>
     </row>
     <row r="81" spans="1:9" ht="30">
-      <c r="A81" s="30" t="s">
-        <v>104</v>
+      <c r="A81" s="22" t="s">
+        <v>376</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>261</v>
+        <v>176</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>381</v>
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F81" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G81" s="30" t="s">
         <v>15</v>
@@ -4284,22 +5055,22 @@
       </c>
       <c r="I81" s="32"/>
     </row>
-    <row r="82" spans="1:9" ht="60">
-      <c r="A82" s="30" t="s">
-        <v>105</v>
+    <row r="82" spans="1:9">
+      <c r="A82" s="22" t="s">
+        <v>377</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>323</v>
+        <v>176</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>375</v>
       </c>
       <c r="D82" s="30"/>
       <c r="E82" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G82" s="30" t="s">
         <v>15</v>
@@ -4309,22 +5080,22 @@
       </c>
       <c r="I82" s="32"/>
     </row>
-    <row r="83" spans="1:9" ht="45">
-      <c r="A83" s="30" t="s">
-        <v>106</v>
+    <row r="83" spans="1:9">
+      <c r="A83" s="22" t="s">
+        <v>378</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="C83" s="32" t="s">
-        <v>262</v>
+        <v>176</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>374</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F83" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G83" s="30" t="s">
         <v>15</v>
@@ -4334,22 +5105,22 @@
       </c>
       <c r="I83" s="32"/>
     </row>
-    <row r="84" spans="1:9" ht="30">
-      <c r="A84" s="30" t="s">
-        <v>107</v>
+    <row r="84" spans="1:9">
+      <c r="A84" s="22" t="s">
+        <v>379</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="C84" s="32" t="s">
-        <v>263</v>
+        <v>176</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>373</v>
       </c>
       <c r="D84" s="30"/>
       <c r="E84" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F84" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G84" s="30" t="s">
         <v>15</v>
@@ -4359,22 +5130,22 @@
       </c>
       <c r="I84" s="32"/>
     </row>
-    <row r="85" spans="1:9" ht="75">
-      <c r="A85" s="30" t="s">
-        <v>108</v>
+    <row r="85" spans="1:9">
+      <c r="A85" s="22" t="s">
+        <v>380</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="C85" s="32" t="s">
-        <v>264</v>
+        <v>176</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>372</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F85" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G85" s="30" t="s">
         <v>15</v>
@@ -4386,145 +5157,145 @@
     </row>
     <row r="86" spans="1:9" ht="30">
       <c r="A86" s="30" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="D86" s="30"/>
       <c r="E86" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F86" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G86" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I86" s="32"/>
     </row>
-    <row r="87" spans="1:9" ht="30">
+    <row r="87" spans="1:9">
       <c r="A87" s="30" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="D87" s="30"/>
       <c r="E87" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F87" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G87" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H87" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I87" s="32"/>
     </row>
-    <row r="88" spans="1:9" ht="45">
+    <row r="88" spans="1:9" ht="30">
       <c r="A88" s="30" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F88" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G88" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I88" s="32"/>
     </row>
-    <row r="89" spans="1:9" ht="75">
+    <row r="89" spans="1:9" ht="45">
       <c r="A89" s="30" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C89" s="32" t="s">
-        <v>268</v>
+        <v>177</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>249</v>
       </c>
       <c r="D89" s="30"/>
       <c r="E89" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F89" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G89" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I89" s="32"/>
     </row>
-    <row r="90" spans="1:9" ht="30">
+    <row r="90" spans="1:9">
       <c r="A90" s="30" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C90" s="32" t="s">
-        <v>269</v>
+        <v>178</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="D90" s="30"/>
       <c r="E90" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F90" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G90" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I90" s="32"/>
     </row>
-    <row r="91" spans="1:9" ht="30">
-      <c r="A91" s="30" t="s">
-        <v>114</v>
+    <row r="91" spans="1:9">
+      <c r="A91" s="22" t="s">
+        <v>367</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C91" s="32" t="s">
-        <v>270</v>
+        <v>178</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>366</v>
       </c>
       <c r="D91" s="30"/>
       <c r="E91" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F91" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G91" s="30" t="s">
         <v>15</v>
@@ -4534,22 +5305,22 @@
       </c>
       <c r="I91" s="32"/>
     </row>
-    <row r="92" spans="1:9" ht="30">
-      <c r="A92" s="30" t="s">
-        <v>115</v>
+    <row r="92" spans="1:9">
+      <c r="A92" s="22" t="s">
+        <v>368</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C92" s="32" t="s">
-        <v>271</v>
+        <v>178</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>365</v>
       </c>
       <c r="D92" s="30"/>
       <c r="E92" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F92" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G92" s="30" t="s">
         <v>15</v>
@@ -4559,47 +5330,47 @@
       </c>
       <c r="I92" s="32"/>
     </row>
-    <row r="93" spans="1:9" ht="30">
-      <c r="A93" s="30" t="s">
-        <v>116</v>
+    <row r="93" spans="1:9">
+      <c r="A93" s="22" t="s">
+        <v>369</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C93" s="32" t="s">
-        <v>272</v>
+        <v>178</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>364</v>
       </c>
       <c r="D93" s="30"/>
       <c r="E93" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F93" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G93" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I93" s="32"/>
     </row>
-    <row r="94" spans="1:9" ht="45">
-      <c r="A94" s="30" t="s">
-        <v>117</v>
+    <row r="94" spans="1:9">
+      <c r="A94" s="22" t="s">
+        <v>370</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>273</v>
+        <v>178</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>363</v>
       </c>
       <c r="D94" s="30"/>
       <c r="E94" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F94" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G94" s="30" t="s">
         <v>15</v>
@@ -4609,25 +5380,25 @@
       </c>
       <c r="I94" s="32"/>
     </row>
-    <row r="95" spans="1:9" ht="30">
-      <c r="A95" s="30" t="s">
-        <v>118</v>
+    <row r="95" spans="1:9">
+      <c r="A95" s="22" t="s">
+        <v>371</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C95" s="32" t="s">
-        <v>253</v>
+        <v>178</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>362</v>
       </c>
       <c r="D95" s="30"/>
       <c r="E95" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F95" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G95" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H95" s="30" t="s">
         <v>18</v>
@@ -4636,20 +5407,20 @@
     </row>
     <row r="96" spans="1:9" ht="30">
       <c r="A96" s="30" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D96" s="30"/>
       <c r="E96" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F96" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G96" s="30" t="s">
         <v>16</v>
@@ -4659,40 +5430,40 @@
       </c>
       <c r="I96" s="32"/>
     </row>
-    <row r="97" spans="1:9" ht="45">
+    <row r="97" spans="1:9" ht="30">
       <c r="A97" s="30" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D97" s="30"/>
       <c r="E97" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F97" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G97" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I97" s="32"/>
     </row>
-    <row r="98" spans="1:9" ht="30">
-      <c r="A98" s="30" t="s">
-        <v>121</v>
+    <row r="98" spans="1:9">
+      <c r="A98" s="22" t="s">
+        <v>351</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C98" s="32" t="s">
-        <v>274</v>
+        <v>178</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>360</v>
       </c>
       <c r="D98" s="30"/>
       <c r="E98" s="30" t="s">
@@ -4702,107 +5473,107 @@
         <v>3</v>
       </c>
       <c r="G98" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H98" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I98" s="32"/>
     </row>
-    <row r="99" spans="1:9" ht="30">
-      <c r="A99" s="30" t="s">
-        <v>122</v>
+    <row r="99" spans="1:9">
+      <c r="A99" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C99" s="32" t="s">
-        <v>275</v>
+        <v>178</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>359</v>
       </c>
       <c r="D99" s="30"/>
       <c r="E99" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F99" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H99" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I99" s="32"/>
     </row>
-    <row r="100" spans="1:9" ht="45">
-      <c r="A100" s="30" t="s">
-        <v>123</v>
+    <row r="100" spans="1:9">
+      <c r="A100" s="22" t="s">
+        <v>353</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C100" s="32" t="s">
-        <v>276</v>
+        <v>178</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>358</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F100" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G100" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H100" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I100" s="32"/>
     </row>
-    <row r="101" spans="1:9" ht="30">
-      <c r="A101" s="30" t="s">
-        <v>124</v>
+    <row r="101" spans="1:9">
+      <c r="A101" s="22" t="s">
+        <v>354</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C101" s="32" t="s">
-        <v>277</v>
+        <v>178</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>357</v>
       </c>
       <c r="D101" s="30"/>
       <c r="E101" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F101" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G101" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H101" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I101" s="32"/>
     </row>
-    <row r="102" spans="1:9" ht="30">
-      <c r="A102" s="30" t="s">
-        <v>125</v>
+    <row r="102" spans="1:9">
+      <c r="A102" s="22" t="s">
+        <v>355</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C102" s="32" t="s">
-        <v>278</v>
+        <v>178</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>356</v>
       </c>
       <c r="D102" s="30"/>
       <c r="E102" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F102" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H102" s="30" t="s">
         <v>18</v>
@@ -4811,13 +5582,13 @@
     </row>
     <row r="103" spans="1:9" ht="30">
       <c r="A103" s="30" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="D103" s="30"/>
       <c r="E103" s="30" t="s">
@@ -4827,47 +5598,47 @@
         <v>7</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H103" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I103" s="32"/>
     </row>
-    <row r="104" spans="1:9" ht="45">
+    <row r="104" spans="1:9" ht="30">
       <c r="A104" s="30" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="D104" s="30"/>
       <c r="E104" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F104" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G104" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H104" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I104" s="32"/>
     </row>
-    <row r="105" spans="1:9" ht="30">
+    <row r="105" spans="1:9" ht="45">
       <c r="A105" s="30" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="D105" s="30"/>
       <c r="E105" s="30" t="s">
@@ -4877,7 +5648,7 @@
         <v>7</v>
       </c>
       <c r="G105" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H105" s="30" t="s">
         <v>18</v>
@@ -4886,338 +5657,338 @@
     </row>
     <row r="106" spans="1:9" ht="30">
       <c r="A106" s="30" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D106" s="30"/>
       <c r="E106" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F106" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G106" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H106" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I106" s="32"/>
     </row>
     <row r="107" spans="1:9" ht="30">
       <c r="A107" s="30" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="D107" s="30"/>
       <c r="E107" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F107" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G107" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H107" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I107" s="32"/>
     </row>
-    <row r="108" spans="1:9" ht="45">
+    <row r="108" spans="1:9" ht="30">
       <c r="A108" s="30" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="D108" s="30"/>
       <c r="E108" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F108" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G108" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H108" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I108" s="32"/>
     </row>
-    <row r="109" spans="1:9" ht="60">
+    <row r="109" spans="1:9" ht="30">
       <c r="A109" s="30" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="D109" s="30"/>
       <c r="E109" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F109" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G109" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H109" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I109" s="32"/>
     </row>
     <row r="110" spans="1:9" ht="45">
       <c r="A110" s="30" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="D110" s="30"/>
       <c r="E110" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F110" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G110" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H110" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I110" s="32"/>
     </row>
-    <row r="111" spans="1:9" ht="75">
+    <row r="111" spans="1:9" ht="30">
       <c r="A111" s="30" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="D111" s="30"/>
       <c r="E111" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F111" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G111" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H111" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I111" s="32"/>
     </row>
     <row r="112" spans="1:9" ht="60">
       <c r="A112" s="30" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="C112" s="32" t="s">
-        <v>288</v>
+        <v>180</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>322</v>
       </c>
       <c r="D112" s="30"/>
       <c r="E112" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F112" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G112" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H112" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I112" s="32"/>
     </row>
-    <row r="113" spans="1:9" ht="60">
+    <row r="113" spans="1:9" ht="45">
       <c r="A113" s="30" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="D113" s="30"/>
       <c r="E113" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F113" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G113" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H113" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I113" s="32"/>
     </row>
-    <row r="114" spans="1:9" ht="45">
+    <row r="114" spans="1:9" ht="30">
       <c r="A114" s="30" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="D114" s="30"/>
       <c r="E114" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F114" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G114" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H114" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I114" s="32"/>
     </row>
-    <row r="115" spans="1:9" ht="60">
+    <row r="115" spans="1:9" ht="75">
       <c r="A115" s="30" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="D115" s="30"/>
       <c r="E115" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F115" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G115" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H115" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I115" s="32"/>
     </row>
-    <row r="116" spans="1:9" ht="60">
+    <row r="116" spans="1:9" ht="30">
       <c r="A116" s="30" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="D116" s="30"/>
       <c r="E116" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F116" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G116" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H116" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I116" s="32"/>
     </row>
-    <row r="117" spans="1:9" ht="90">
+    <row r="117" spans="1:9" ht="30">
       <c r="A117" s="30" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="D117" s="30"/>
       <c r="E117" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F117" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G117" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H117" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I117" s="32"/>
     </row>
-    <row r="118" spans="1:9" ht="90">
+    <row r="118" spans="1:9" ht="45">
       <c r="A118" s="30" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="D118" s="30"/>
       <c r="E118" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F118" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G118" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H118" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I118" s="32"/>
     </row>
-    <row r="119" spans="1:9" ht="45">
+    <row r="119" spans="1:9" ht="75">
       <c r="A119" s="30" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="D119" s="30"/>
       <c r="E119" s="30" t="s">
@@ -5234,90 +6005,90 @@
       </c>
       <c r="I119" s="32"/>
     </row>
-    <row r="120" spans="1:9" ht="45">
+    <row r="120" spans="1:9" ht="30">
       <c r="A120" s="30" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>324</v>
+        <v>184</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>268</v>
       </c>
       <c r="D120" s="30"/>
       <c r="E120" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F120" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G120" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H120" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I120" s="32"/>
     </row>
     <row r="121" spans="1:9" ht="30">
       <c r="A121" s="30" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="D121" s="30"/>
       <c r="E121" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F121" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G121" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H121" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I121" s="32"/>
     </row>
     <row r="122" spans="1:9" ht="30">
       <c r="A122" s="30" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="D122" s="30"/>
       <c r="E122" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F122" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G122" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H122" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I122" s="32"/>
     </row>
     <row r="123" spans="1:9" ht="30">
       <c r="A123" s="30" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="D123" s="30"/>
       <c r="E123" s="30" t="s">
@@ -5336,48 +6107,48 @@
     </row>
     <row r="124" spans="1:9" ht="45">
       <c r="A124" s="30" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="D124" s="30"/>
       <c r="E124" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F124" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G124" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H124" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I124" s="32"/>
     </row>
     <row r="125" spans="1:9" ht="30">
       <c r="A125" s="30" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="D125" s="30"/>
       <c r="E125" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F125" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G125" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H125" s="30" t="s">
         <v>18</v>
@@ -5386,13 +6157,13 @@
     </row>
     <row r="126" spans="1:9" ht="30">
       <c r="A126" s="30" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="D126" s="30"/>
       <c r="E126" s="30" t="s">
@@ -5402,22 +6173,22 @@
         <v>6</v>
       </c>
       <c r="G126" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H126" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I126" s="32"/>
     </row>
     <row r="127" spans="1:9" ht="45">
       <c r="A127" s="30" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="D127" s="30"/>
       <c r="E127" s="30" t="s">
@@ -5427,54 +6198,54 @@
         <v>6</v>
       </c>
       <c r="G127" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H127" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I127" s="32"/>
     </row>
-    <row r="128" spans="1:9" ht="60">
+    <row r="128" spans="1:9" ht="30">
       <c r="A128" s="30" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="D128" s="30"/>
       <c r="E128" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F128" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G128" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H128" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I128" s="32"/>
     </row>
-    <row r="129" spans="1:9" ht="45">
+    <row r="129" spans="1:9" ht="30">
       <c r="A129" s="30" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="D129" s="30"/>
       <c r="E129" s="30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F129" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G129" s="30" t="s">
         <v>16</v>
@@ -5484,122 +6255,122 @@
       </c>
       <c r="I129" s="32"/>
     </row>
-    <row r="130" spans="1:9" ht="30">
+    <row r="130" spans="1:9" ht="45">
       <c r="A130" s="30" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="D130" s="30"/>
       <c r="E130" s="30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F130" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G130" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H130" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I130" s="32"/>
     </row>
     <row r="131" spans="1:9" ht="30">
       <c r="A131" s="30" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="D131" s="30"/>
       <c r="E131" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F131" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G131" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H131" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I131" s="32"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" ht="30">
       <c r="A132" s="30" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="D132" s="30"/>
       <c r="E132" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F132" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G132" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H132" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I132" s="32"/>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" ht="30">
       <c r="A133" s="30" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="D133" s="30"/>
       <c r="E133" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F133" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G133" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H133" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I133" s="32"/>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" ht="45">
       <c r="A134" s="30" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="D134" s="30"/>
       <c r="E134" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F134" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G134" s="30" t="s">
         <v>15</v>
@@ -5609,47 +6380,47 @@
       </c>
       <c r="I134" s="32"/>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" ht="30">
       <c r="A135" s="30" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="D135" s="30"/>
       <c r="E135" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F135" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G135" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H135" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I135" s="32"/>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" ht="30">
       <c r="A136" s="30" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="D136" s="30"/>
       <c r="E136" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F136" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G136" s="30" t="s">
         <v>15</v>
@@ -5661,45 +6432,45 @@
     </row>
     <row r="137" spans="1:9" ht="30">
       <c r="A137" s="30" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="D137" s="30"/>
       <c r="E137" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F137" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G137" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H137" s="30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I137" s="32"/>
     </row>
-    <row r="138" spans="1:9" ht="30">
+    <row r="138" spans="1:9" ht="45">
       <c r="A138" s="30" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="D138" s="30"/>
       <c r="E138" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F138" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G138" s="30" t="s">
         <v>15</v>
@@ -5709,22 +6480,22 @@
       </c>
       <c r="I138" s="32"/>
     </row>
-    <row r="139" spans="1:9" ht="30">
+    <row r="139" spans="1:9" ht="60">
       <c r="A139" s="30" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="D139" s="30"/>
       <c r="E139" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F139" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G139" s="30" t="s">
         <v>15</v>
@@ -5734,72 +6505,72 @@
       </c>
       <c r="I139" s="32"/>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" ht="45">
       <c r="A140" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="B140" s="34">
-        <v>2.7</v>
+        <v>133</v>
+      </c>
+      <c r="B140" s="31" t="s">
+        <v>191</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="D140" s="30"/>
       <c r="E140" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F140" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G140" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H140" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I140" s="32"/>
     </row>
-    <row r="141" spans="1:9" ht="30">
+    <row r="141" spans="1:9" ht="75">
       <c r="A141" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="B141" s="34">
-        <v>2.7</v>
+        <v>134</v>
+      </c>
+      <c r="B141" s="31" t="s">
+        <v>191</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="D141" s="30"/>
       <c r="E141" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F141" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G141" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H141" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I141" s="32"/>
     </row>
-    <row r="142" spans="1:9" ht="30">
+    <row r="142" spans="1:9" ht="60">
       <c r="A142" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="B142" s="34">
-        <v>2.7</v>
+        <v>135</v>
+      </c>
+      <c r="B142" s="31" t="s">
+        <v>191</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="D142" s="30"/>
       <c r="E142" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F142" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G142" s="30" t="s">
         <v>15</v>
@@ -5809,22 +6580,22 @@
       </c>
       <c r="I142" s="32"/>
     </row>
-    <row r="143" spans="1:9" ht="30">
+    <row r="143" spans="1:9" ht="60">
       <c r="A143" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="B143" s="34">
-        <v>2.7</v>
+        <v>136</v>
+      </c>
+      <c r="B143" s="31" t="s">
+        <v>192</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="D143" s="30"/>
       <c r="E143" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F143" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G143" s="30" t="s">
         <v>15</v>
@@ -5834,47 +6605,47 @@
       </c>
       <c r="I143" s="32"/>
     </row>
-    <row r="144" spans="1:9" ht="30">
+    <row r="144" spans="1:9" ht="45">
       <c r="A144" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B144" s="24" t="s">
-        <v>326</v>
+        <v>137</v>
+      </c>
+      <c r="B144" s="31" t="s">
+        <v>192</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="D144" s="30"/>
       <c r="E144" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F144" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G144" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H144" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I144" s="32"/>
     </row>
-    <row r="145" spans="1:9" ht="135">
+    <row r="145" spans="1:9" ht="60">
       <c r="A145" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B145" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>325</v>
+        <v>138</v>
+      </c>
+      <c r="B145" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C145" s="32" t="s">
+        <v>290</v>
       </c>
       <c r="D145" s="30"/>
       <c r="E145" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F145" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G145" s="30" t="s">
         <v>15</v>
@@ -5884,21 +6655,766 @@
       </c>
       <c r="I145" s="32"/>
     </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="3"/>
-      <c r="B146" s="10"/>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="3"/>
-      <c r="B147" s="10"/>
+    <row r="146" spans="1:9" ht="60">
+      <c r="A146" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B146" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C146" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="D146" s="30"/>
+      <c r="E146" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F146" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G146" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I146" s="32"/>
+    </row>
+    <row r="147" spans="1:9" ht="90">
+      <c r="A147" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B147" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C147" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="D147" s="30"/>
+      <c r="E147" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G147" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I147" s="32"/>
+    </row>
+    <row r="148" spans="1:9" ht="90">
+      <c r="A148" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B148" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C148" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G148" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I148" s="32"/>
+    </row>
+    <row r="149" spans="1:9" ht="45">
+      <c r="A149" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B149" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C149" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D149" s="30"/>
+      <c r="E149" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G149" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H149" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" s="32"/>
+    </row>
+    <row r="150" spans="1:9" ht="45">
+      <c r="A150" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B150" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C150" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D150" s="30"/>
+      <c r="E150" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F150" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G150" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H150" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I150" s="32"/>
+    </row>
+    <row r="151" spans="1:9" ht="30">
+      <c r="A151" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B151" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C151" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="D151" s="30"/>
+      <c r="E151" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F151" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G151" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I151" s="32"/>
+    </row>
+    <row r="152" spans="1:9" ht="30">
+      <c r="A152" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B152" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C152" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D152" s="30"/>
+      <c r="E152" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F152" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G152" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H152" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I152" s="32"/>
+    </row>
+    <row r="153" spans="1:9" ht="30">
+      <c r="A153" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B153" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C153" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D153" s="30"/>
+      <c r="E153" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G153" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I153" s="32"/>
+    </row>
+    <row r="154" spans="1:9" ht="45">
+      <c r="A154" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B154" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C154" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D154" s="30"/>
+      <c r="E154" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F154" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I154" s="32"/>
+    </row>
+    <row r="155" spans="1:9" ht="30">
+      <c r="A155" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B155" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C155" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="D155" s="30"/>
+      <c r="E155" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F155" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G155" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I155" s="32"/>
+    </row>
+    <row r="156" spans="1:9" ht="30">
+      <c r="A156" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B156" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C156" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D156" s="30"/>
+      <c r="E156" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F156" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G156" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H156" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I156" s="32"/>
+    </row>
+    <row r="157" spans="1:9" ht="45">
+      <c r="A157" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B157" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C157" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D157" s="30"/>
+      <c r="E157" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G157" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H157" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I157" s="32"/>
+    </row>
+    <row r="158" spans="1:9" ht="60">
+      <c r="A158" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B158" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C158" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="D158" s="30"/>
+      <c r="E158" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F158" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G158" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H158" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I158" s="32"/>
+    </row>
+    <row r="159" spans="1:9" ht="45">
+      <c r="A159" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B159" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C159" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D159" s="30"/>
+      <c r="E159" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F159" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G159" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H159" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159" s="32"/>
+    </row>
+    <row r="160" spans="1:9" ht="30">
+      <c r="A160" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B160" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C160" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="D160" s="30"/>
+      <c r="E160" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F160" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G160" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H160" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" s="32"/>
+    </row>
+    <row r="161" spans="1:9" ht="30">
+      <c r="A161" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B161" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C161" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="D161" s="30"/>
+      <c r="E161" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F161" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G161" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H161" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I161" s="32"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B162" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C162" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="D162" s="30"/>
+      <c r="E162" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F162" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G162" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H162" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I162" s="32"/>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B163" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C163" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="D163" s="30"/>
+      <c r="E163" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G163" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H163" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I163" s="32"/>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B164" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C164" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="D164" s="30"/>
+      <c r="E164" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G164" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I164" s="32"/>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B165" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C165" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="D165" s="30"/>
+      <c r="E165" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F165" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G165" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I165" s="32"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B166" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C166" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D166" s="30"/>
+      <c r="E166" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F166" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G166" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H166" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I166" s="32"/>
+    </row>
+    <row r="167" spans="1:9" ht="30">
+      <c r="A167" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B167" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C167" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="D167" s="30"/>
+      <c r="E167" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F167" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G167" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I167" s="32"/>
+    </row>
+    <row r="168" spans="1:9" ht="30">
+      <c r="A168" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B168" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C168" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="D168" s="30"/>
+      <c r="E168" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F168" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G168" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H168" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I168" s="32"/>
+    </row>
+    <row r="169" spans="1:9" ht="30">
+      <c r="A169" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B169" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C169" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="D169" s="30"/>
+      <c r="E169" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G169" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I169" s="32"/>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B170" s="34">
+        <v>2.7</v>
+      </c>
+      <c r="C170" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="D170" s="30"/>
+      <c r="E170" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F170" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G170" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H170" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I170" s="32"/>
+    </row>
+    <row r="171" spans="1:9" ht="30">
+      <c r="A171" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B171" s="34">
+        <v>2.7</v>
+      </c>
+      <c r="C171" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="D171" s="30"/>
+      <c r="E171" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F171" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G171" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I171" s="32"/>
+    </row>
+    <row r="172" spans="1:9" ht="30">
+      <c r="A172" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B172" s="34">
+        <v>2.7</v>
+      </c>
+      <c r="C172" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D172" s="30"/>
+      <c r="E172" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F172" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G172" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H172" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I172" s="32"/>
+    </row>
+    <row r="173" spans="1:9" ht="30">
+      <c r="A173" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B173" s="34">
+        <v>2.7</v>
+      </c>
+      <c r="C173" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D173" s="30"/>
+      <c r="E173" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F173" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G173" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H173" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I173" s="32"/>
+    </row>
+    <row r="174" spans="1:9" ht="30">
+      <c r="A174" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B174" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="C174" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D174" s="30"/>
+      <c r="E174" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F174" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G174" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H174" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I174" s="32"/>
+    </row>
+    <row r="175" spans="1:9" ht="135">
+      <c r="A175" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B175" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="C175" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D175" s="30"/>
+      <c r="E175" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F175" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G175" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H175" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I175" s="32"/>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="3"/>
+      <c r="B176" s="10"/>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="3"/>
+      <c r="B177" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -5906,53 +7422,462 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I20:I128 A20:H122 A34:I145">
-    <cfRule type="expression" dxfId="26" priority="53">
+  <conditionalFormatting sqref="I20:I89 A20:H55 A34:I55 A61:I63 D56:I60 A56:B60 A78:I80 A73:B77 D73:I77 A69:I72 A64:B68 D64:I68 A86:I89 D91:D95 A103:I175 A98:B102 D98:I102 A96:I97 I91:I158 H91:I95 A81:B85 D81:I85">
+    <cfRule type="expression" dxfId="117" priority="163">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="54">
+    <cfRule type="expression" dxfId="116" priority="164">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="61">
+    <cfRule type="expression" dxfId="115" priority="171">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I128 A20:H122 A34:I145">
-    <cfRule type="expression" dxfId="23" priority="7">
+  <conditionalFormatting sqref="I20:I89 A20:H55 A34:I55 A61:I63 D56:I60 A56:B60 A78:I80 A73:B77 D73:I77 A69:I72 A64:B68 D64:I68 A86:I89 D91:D95 A103:I175 A98:B102 D98:I102 A96:I97 I91:I158 H91:I95 A81:B85 D81:I85">
+    <cfRule type="expression" dxfId="114" priority="117">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="113" priority="118">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="112" priority="119">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F145">
-    <cfRule type="expression" dxfId="20" priority="13">
+  <conditionalFormatting sqref="F96:F175 F20:F89">
+    <cfRule type="expression" dxfId="111" priority="123">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="14">
+    <cfRule type="expression" dxfId="110" priority="124">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C59">
+    <cfRule type="expression" dxfId="109" priority="108">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="109">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="110">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C59">
+    <cfRule type="expression" dxfId="106" priority="105">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="106">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="107">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="103" priority="102">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="103">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="104">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="100" priority="99">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="100">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="101">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73:C76">
+    <cfRule type="expression" dxfId="97" priority="96">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="97">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="98">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73:C76">
+    <cfRule type="expression" dxfId="94" priority="93">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="94">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="95">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="expression" dxfId="91" priority="90">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="91">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="92">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="expression" dxfId="88" priority="87">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="88">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="89">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64:C67">
+    <cfRule type="expression" dxfId="85" priority="84">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="85">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="86">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64:C67">
+    <cfRule type="expression" dxfId="82" priority="81">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="82">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="83">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="79" priority="78">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="79">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="80">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="76" priority="75">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="76">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="77">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81:C84">
+    <cfRule type="expression" dxfId="73" priority="72">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="73">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="74">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81:C84">
+    <cfRule type="expression" dxfId="70" priority="69">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="70">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="71">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="expression" dxfId="67" priority="66">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="67">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="68">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="expression" dxfId="64" priority="63">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="64">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="65">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:C94">
+    <cfRule type="expression" dxfId="61" priority="60">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="61">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="62">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:C94">
+    <cfRule type="expression" dxfId="58" priority="57">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="58">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="59">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95">
+    <cfRule type="expression" dxfId="55" priority="54">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="55">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="56">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95">
+    <cfRule type="expression" dxfId="52" priority="51">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="52">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="53">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C101">
+    <cfRule type="expression" dxfId="49" priority="48">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="49">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="50">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C101">
+    <cfRule type="expression" dxfId="46" priority="45">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="46">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="47">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="expression" dxfId="43" priority="42">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="43">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="44">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="expression" dxfId="40" priority="39">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="40">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="41">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90:I90 A91:A95 E91:G95">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="37">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="38">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90:I90 A91:A95 E91:G95">
+    <cfRule type="expression" dxfId="32" priority="31">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="33">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90:F95">
+    <cfRule type="expression" dxfId="37" priority="34">
+      <formula>NOT(VLOOKUP(F90,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="35">
+      <formula>(VLOOKUP(F90,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91">
+    <cfRule type="expression" dxfId="29" priority="28">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="30">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91">
+    <cfRule type="expression" dxfId="26" priority="25">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="27">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92">
+    <cfRule type="expression" dxfId="23" priority="22">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="24">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92">
+    <cfRule type="expression" dxfId="20" priority="19">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="21">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93">
+    <cfRule type="expression" dxfId="17" priority="16">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="18">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93">
+    <cfRule type="expression" dxfId="14" priority="13">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B94">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B94">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F175" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E175" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G175" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H145">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H175" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5962,7 +7887,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="C3 B129:B130 B19:B128 B131:B145 B146:B147" numberStoredAsText="1"/>
+    <ignoredError sqref="C3 B103:B177 B19:B54 B69:B72 B61:B63 B78:B80 B86:B89 B96:B97" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -5978,6 +7903,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -6026,15 +7960,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
@@ -6050,6 +7975,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6062,12 +7995,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ExchangeActiveSync/Docs/MS-ASNOTE/MS-ASNOTE_RequirementSpecification.xlsx
+++ b/ExchangeActiveSync/Docs/MS-ASNOTE/MS-ASNOTE_RequirementSpecification.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB783CE-1EBB-4744-AF20-182EAC955C43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8860A875-7B2D-4AF6-889E-6B50E939CA8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="1185" windowWidth="18570" windowHeight="11595" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="388">
   <si>
     <t>Req ID</t>
   </si>
@@ -1234,21 +1234,6 @@
     <t>2.7.5</t>
   </si>
   <si>
-    <t>[In Body] Protocol version 14.0 supports this [In Body] element.</t>
-  </si>
-  <si>
-    <t>[In Body] Protocol version 14.1 supports this [In Body] element.</t>
-  </si>
-  <si>
-    <t>[In Body] Protocol version 16.0 supports this [In Body] element.</t>
-  </si>
-  <si>
-    <t>[In Body] Protocol version 16.1 supports this [In Body] element.</t>
-  </si>
-  <si>
-    <t>[In Body] Protocol version 12.1 does not supports this [In Body] element.</t>
-  </si>
-  <si>
     <t>MS-ASNOTE_R43001</t>
   </si>
   <si>
@@ -1264,21 +1249,6 @@
     <t>MS-ASNOTE_R43005</t>
   </si>
   <si>
-    <t>[In Category] Protocol version 12.1 does not supports this [In Category] element.</t>
-  </si>
-  <si>
-    <t>[In Category] Protocol version 14.0 supports this [In Category] element.</t>
-  </si>
-  <si>
-    <t>[In Category] Protocol version 14.1 supports this [In Category] element.</t>
-  </si>
-  <si>
-    <t>[In Category] Protocol version 16.0 supports this [In Category] element.</t>
-  </si>
-  <si>
-    <t>[In Category] Protocol version 16.1 supports this [In Category] element.</t>
-  </si>
-  <si>
     <t>MS-ASNOTE_R50001</t>
   </si>
   <si>
@@ -1327,63 +1297,6 @@
     <t>[In Subject] Protocol version 16.1 supports this [In Subject] element.</t>
   </si>
   <si>
-    <t>[In Subject] Protocol version 16.0 supports this [In Subject] element.</t>
-  </si>
-  <si>
-    <t>[In Subject] Protocol version 14.1 supports this [In Subject] element.</t>
-  </si>
-  <si>
-    <t>[In Subject] Protocol version 14.0 supports this [In Subject] element.</t>
-  </si>
-  <si>
-    <t>[In Subject] Protocol version 12.1 does not supports this [In Subject] element.</t>
-  </si>
-  <si>
-    <t>[In MessageClass] The Subject element specifies the subject of the note.</t>
-  </si>
-  <si>
-    <t>[In MessageClass] Protocol version 16.1 supports this [In MessageClass] element.</t>
-  </si>
-  <si>
-    <t>[In MessageClass] Protocol version 16.0 supports this [In MessageClass] element.</t>
-  </si>
-  <si>
-    <t>[In MessageClass] Protocol version 14.1 supports this [In MessageClass] element.</t>
-  </si>
-  <si>
-    <t>[In MessageClass] Protocol version 14.0 supports this [In MessageClass] element.</t>
-  </si>
-  <si>
-    <t>[In MessageClass] Protocol version 12.1 does not supports this [In MessageClass] element.</t>
-  </si>
-  <si>
-    <t>MS-ASNOTE_R58001</t>
-  </si>
-  <si>
-    <t>MS-ASNOTE_R58002</t>
-  </si>
-  <si>
-    <t>MS-ASNOTE_R58003</t>
-  </si>
-  <si>
-    <t>MS-ASNOTE_R58004</t>
-  </si>
-  <si>
-    <t>MS-ASNOTE_R58005</t>
-  </si>
-  <si>
-    <t>[In LastModifiedDate] Protocol version 16.1 supports this [In LastModifiedDate] element.</t>
-  </si>
-  <si>
-    <t>[In LastModifiedDate] Protocol version 16.0 supports this [In LastModifiedDate] element.</t>
-  </si>
-  <si>
-    <t>[In LastModifiedDate] Protocol version 14.1 supports this [In LastModifiedDate] element.</t>
-  </si>
-  <si>
-    <t>[In LastModifiedDate] Protocol version 14.0 supports this [In LastModifiedDate] element.</t>
-  </si>
-  <si>
     <t>MS-ASNOTE_R53001</t>
   </si>
   <si>
@@ -1399,22 +1312,112 @@
     <t>MS-ASNOTE_R53005</t>
   </si>
   <si>
-    <t>[In LastModifiedDate] Protocol version 12.1 does not supports this [In LastModifiedDate] element.</t>
-  </si>
-  <si>
-    <t>[In Categories] Protocol version 12.1 does not supports this [In Categories] element.</t>
-  </si>
-  <si>
-    <t>[In Categories] Protocol version 14.0 supports this [In Categories] element.</t>
-  </si>
-  <si>
-    <t>[In Categories] Protocol version 14.1 supports this [In Categories] element.</t>
-  </si>
-  <si>
-    <t>[In Categories] Protocol version 16.0 supports this [In Categories] element.</t>
-  </si>
-  <si>
-    <t>[In Categories] Protocol version 16.1 supports this [In Categories] element.</t>
+    <t>[In Subject] The Subject element specifies the subject of the note.</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R57001</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R57002</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R57003</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R57004</t>
+  </si>
+  <si>
+    <t>MS-ASNOTE_R57005</t>
+  </si>
+  <si>
+    <t>[In Body] Protocol version 12.1 does not supports this [Body] element.</t>
+  </si>
+  <si>
+    <t>[In Body] Protocol version 14.0 supports this [Body] element.</t>
+  </si>
+  <si>
+    <t>[In Body] Protocol version 14.1 supports this [Body] element.</t>
+  </si>
+  <si>
+    <t>[In Body] Protocol version 16.0 supports this [Body] element.</t>
+  </si>
+  <si>
+    <t>[In Body] Protocol version 16.1 supports this [Body] element.</t>
+  </si>
+  <si>
+    <t>[In Categories] Protocol version 12.1 does not supports this [Categories] element.</t>
+  </si>
+  <si>
+    <t>[In Categories] Protocol version 14.0 supports this [Categories] element.</t>
+  </si>
+  <si>
+    <t>[In Categories] Protocol version 14.1 supports this [Categories] element.</t>
+  </si>
+  <si>
+    <t>[In Categories] Protocol version 16.0 supports this [Categories] element.</t>
+  </si>
+  <si>
+    <t>[In Categories] Protocol version 16.1 supports this [Categories] element.</t>
+  </si>
+  <si>
+    <t>[In Category] Protocol version 12.1 does not supports this [Category] element.</t>
+  </si>
+  <si>
+    <t>[In Category] Protocol version 14.0 supports this [Category] element.</t>
+  </si>
+  <si>
+    <t>[In Category] Protocol version 14.1 supports this [Category] element.</t>
+  </si>
+  <si>
+    <t>[In Category] Protocol version 16.0 supports this [Category] element.</t>
+  </si>
+  <si>
+    <t>[In Category] Protocol version 16.1 supports this [Category] element.</t>
+  </si>
+  <si>
+    <t>[In LastModifiedDate] Protocol version 14.0 supports this [LastModifiedDate] element.</t>
+  </si>
+  <si>
+    <t>[In LastModifiedDate] Protocol version 14.1 supports this [LastModifiedDate] element.</t>
+  </si>
+  <si>
+    <t>[In LastModifiedDate] Protocol version 16.0 supports this [LastModifiedDate] element.</t>
+  </si>
+  <si>
+    <t>[In LastModifiedDate] Protocol version 16.1 supports this [LastModifiedDate] element.</t>
+  </si>
+  <si>
+    <t>[In LastModifiedDate] Protocol version 12.1 does not supports this [LastModifiedDate] element.</t>
+  </si>
+  <si>
+    <t>[In MessageClass] Protocol version 12.1 does not supports this [MessageClass] element.</t>
+  </si>
+  <si>
+    <t>[In MessageClass] Protocol version 14.0 supports this [MessageClass] element.</t>
+  </si>
+  <si>
+    <t>[In MessageClass] Protocol version 14.1 supports this [MessageClass] element.</t>
+  </si>
+  <si>
+    <t>[In MessageClass] Protocol version 16.0 supports this [MessageClass] element.</t>
+  </si>
+  <si>
+    <t>[In MessageClass] Protocol version 16.1 supports this [MessageClass] element.</t>
+  </si>
+  <si>
+    <t>[In Subject] Protocol version 12.1 does not supports this [Subject] element.</t>
+  </si>
+  <si>
+    <t>[In Subject] Protocol version 14.0 supports this [Subject] element.</t>
+  </si>
+  <si>
+    <t>[In Subject] Protocol version 14.1 supports this [ubject] element.</t>
+  </si>
+  <si>
+    <t>[In Subject] Protocol version 16.0 supports this [Subject] element.</t>
+  </si>
+  <si>
+    <t>[In Subject] Protocol version 16.1 supports this [Subject] element.</t>
   </si>
 </sst>
 </file>
@@ -1693,21 +1696,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1732,191 +1720,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="137">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
+  <dxfs count="143">
     <dxf>
       <fill>
         <patternFill>
@@ -2292,6 +2115,216 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
@@ -2333,179 +2366,6 @@
     <dxf>
       <font>
         <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -2669,6 +2529,179 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
@@ -2802,34 +2835,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I175" tableType="xml" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I175" tableType="xml" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141" connectionId="1">
   <autoFilter ref="A19:I175" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="126">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="140">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="125">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="139">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="124">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="138">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="123">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="137">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="122">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="136">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="121">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="135">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="120">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="134">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="119">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="133">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="118">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="132">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -2838,12 +2871,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="136" dataDxfId="134" headerRowBorderDxfId="135" tableBorderDxfId="133" totalsRowBorderDxfId="132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="131" dataDxfId="129" headerRowBorderDxfId="130" tableBorderDxfId="128" totalsRowBorderDxfId="127">
   <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="131"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="130"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="129"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="125"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3173,8 +3206,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3231,128 +3264,128 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -3365,12 +3398,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -3383,12 +3416,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -3401,12 +3434,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -3419,60 +3452,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -4407,13 +4440,13 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="22" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B56" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="D56" s="30"/>
       <c r="E56" s="30" t="s">
@@ -4432,13 +4465,13 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="22" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B57" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30" t="s">
@@ -4457,13 +4490,13 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="22" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B58" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="D58" s="30"/>
       <c r="E58" s="30" t="s">
@@ -4482,13 +4515,13 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="22" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="D59" s="30"/>
       <c r="E59" s="30" t="s">
@@ -4507,13 +4540,13 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="22" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B60" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="D60" s="30"/>
       <c r="E60" s="30" t="s">
@@ -4607,13 +4640,13 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="22" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B64" s="31" t="s">
         <v>174</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30" t="s">
@@ -4632,13 +4665,13 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="22" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B65" s="31" t="s">
         <v>174</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="D65" s="30"/>
       <c r="E65" s="30" t="s">
@@ -4657,13 +4690,13 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B66" s="31" t="s">
         <v>174</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="D66" s="30"/>
       <c r="E66" s="30" t="s">
@@ -4682,13 +4715,13 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B67" s="31" t="s">
         <v>174</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="D67" s="30"/>
       <c r="E67" s="30" t="s">
@@ -4707,13 +4740,13 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B68" s="31" t="s">
         <v>174</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="30" t="s">
@@ -4832,13 +4865,13 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="22" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B73" s="31" t="s">
         <v>175</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="D73" s="30"/>
       <c r="E73" s="30" t="s">
@@ -4857,13 +4890,13 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="22" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B74" s="31" t="s">
         <v>175</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="D74" s="30"/>
       <c r="E74" s="30" t="s">
@@ -4882,13 +4915,13 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="22" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B75" s="31" t="s">
         <v>175</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="D75" s="30"/>
       <c r="E75" s="30" t="s">
@@ -4907,13 +4940,13 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="22" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B76" s="31" t="s">
         <v>175</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="D76" s="30"/>
       <c r="E76" s="30" t="s">
@@ -4932,13 +4965,13 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="22" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B77" s="31" t="s">
         <v>175</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="D77" s="30"/>
       <c r="E77" s="30" t="s">
@@ -5032,13 +5065,13 @@
     </row>
     <row r="81" spans="1:9" ht="30">
       <c r="A81" s="22" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="B81" s="31" t="s">
         <v>176</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="30" t="s">
@@ -5057,13 +5090,13 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="22" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="B82" s="31" t="s">
         <v>176</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D82" s="30"/>
       <c r="E82" s="30" t="s">
@@ -5082,7 +5115,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="22" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="B83" s="31" t="s">
         <v>176</v>
@@ -5107,13 +5140,13 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="22" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="B84" s="31" t="s">
         <v>176</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D84" s="30"/>
       <c r="E84" s="30" t="s">
@@ -5132,13 +5165,13 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="22" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="B85" s="31" t="s">
         <v>176</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30" t="s">
@@ -5256,14 +5289,14 @@
       <c r="I89" s="32"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>361</v>
+      <c r="A90" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>378</v>
       </c>
       <c r="D90" s="30"/>
       <c r="E90" s="30" t="s">
@@ -5276,19 +5309,19 @@
         <v>15</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I90" s="32"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="B91" s="31" t="s">
-        <v>178</v>
+        <v>354</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>177</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="D91" s="30"/>
       <c r="E91" s="30" t="s">
@@ -5307,13 +5340,13 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="B92" s="31" t="s">
-        <v>178</v>
+        <v>355</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>177</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="D92" s="30"/>
       <c r="E92" s="30" t="s">
@@ -5332,13 +5365,13 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="B93" s="31" t="s">
-        <v>178</v>
+        <v>356</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>177</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="D93" s="30"/>
       <c r="E93" s="30" t="s">
@@ -5357,13 +5390,13 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="B94" s="31" t="s">
-        <v>178</v>
+        <v>357</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>177</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="D94" s="30"/>
       <c r="E94" s="30" t="s">
@@ -5381,14 +5414,14 @@
       <c r="I94" s="32"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="B95" s="31" t="s">
+      <c r="A95" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="C95" s="21" t="s">
-        <v>362</v>
+      <c r="C95" s="20" t="s">
+        <v>352</v>
       </c>
       <c r="D95" s="30"/>
       <c r="E95" s="30" t="s">
@@ -5401,7 +5434,7 @@
         <v>15</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I95" s="32"/>
     </row>
@@ -5457,13 +5490,13 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="22" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B98" s="31" t="s">
         <v>178</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="D98" s="30"/>
       <c r="E98" s="30" t="s">
@@ -5482,13 +5515,13 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="22" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B99" s="31" t="s">
         <v>178</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="D99" s="30"/>
       <c r="E99" s="30" t="s">
@@ -5507,13 +5540,13 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="22" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B100" s="31" t="s">
         <v>178</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30" t="s">
@@ -5532,13 +5565,13 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="22" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B101" s="31" t="s">
         <v>178</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="D101" s="30"/>
       <c r="E101" s="30" t="s">
@@ -5557,13 +5590,13 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="22" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B102" s="31" t="s">
         <v>178</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="D102" s="30"/>
       <c r="E102" s="30" t="s">
@@ -7415,6 +7448,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -7422,297 +7460,314 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I20:I89 A20:H55 A34:I55 A61:I63 D56:I60 A56:B60 A78:I80 A73:B77 D73:I77 A69:I72 A64:B68 D64:I68 A86:I89 D91:D95 A103:I175 A98:B102 D98:I102 A96:I97 I91:I158 H91:I95 A81:B85 D81:I85">
-    <cfRule type="expression" dxfId="117" priority="163">
+  <conditionalFormatting sqref="I20:I89 A20:H55 A34:I55 A61:I63 D56:I60 A56:B60 A78:I80 A73:B77 D73:I77 A69:I72 A64:B68 D64:I68 A86:I89 D90:D94 A103:I175 A98:B102 D98:I102 A96:I97 H90:I94 A81:B85 D81:I85 I96:I158">
+    <cfRule type="expression" dxfId="123" priority="171">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="164">
+    <cfRule type="expression" dxfId="122" priority="172">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="171">
+    <cfRule type="expression" dxfId="121" priority="179">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I89 A20:H55 A34:I55 A61:I63 D56:I60 A56:B60 A78:I80 A73:B77 D73:I77 A69:I72 A64:B68 D64:I68 A86:I89 D91:D95 A103:I175 A98:B102 D98:I102 A96:I97 I91:I158 H91:I95 A81:B85 D81:I85">
-    <cfRule type="expression" dxfId="114" priority="117">
+  <conditionalFormatting sqref="I20:I89 A20:H55 A34:I55 A61:I63 D56:I60 A56:B60 A78:I80 A73:B77 D73:I77 A69:I72 A64:B68 D64:I68 A86:I89 D90:D94 A103:I175 A98:B102 D98:I102 A96:I97 H90:I94 A81:B85 D81:I85 I96:I158">
+    <cfRule type="expression" dxfId="120" priority="125">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="118">
+    <cfRule type="expression" dxfId="119" priority="126">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="119">
+    <cfRule type="expression" dxfId="118" priority="127">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96:F175 F20:F89">
-    <cfRule type="expression" dxfId="111" priority="123">
+  <conditionalFormatting sqref="F96:F175 F20:F94">
+    <cfRule type="expression" dxfId="117" priority="131">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="124">
+    <cfRule type="expression" dxfId="116" priority="132">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C59">
-    <cfRule type="expression" dxfId="109" priority="108">
+    <cfRule type="expression" dxfId="115" priority="116">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="109">
+    <cfRule type="expression" dxfId="114" priority="117">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="110">
+    <cfRule type="expression" dxfId="113" priority="118">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C59">
-    <cfRule type="expression" dxfId="106" priority="105">
+    <cfRule type="expression" dxfId="112" priority="113">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="106">
+    <cfRule type="expression" dxfId="111" priority="114">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="107">
+    <cfRule type="expression" dxfId="110" priority="115">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="103" priority="102">
+    <cfRule type="expression" dxfId="109" priority="110">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="103">
+    <cfRule type="expression" dxfId="108" priority="111">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="104">
+    <cfRule type="expression" dxfId="107" priority="112">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="100" priority="99">
+    <cfRule type="expression" dxfId="106" priority="107">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="100">
+    <cfRule type="expression" dxfId="105" priority="108">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="101">
+    <cfRule type="expression" dxfId="104" priority="109">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73:C76">
-    <cfRule type="expression" dxfId="97" priority="96">
+    <cfRule type="expression" dxfId="103" priority="104">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="97">
+    <cfRule type="expression" dxfId="102" priority="105">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="98">
+    <cfRule type="expression" dxfId="101" priority="106">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73:C76">
-    <cfRule type="expression" dxfId="94" priority="93">
+    <cfRule type="expression" dxfId="100" priority="101">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="94">
+    <cfRule type="expression" dxfId="99" priority="102">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="95">
+    <cfRule type="expression" dxfId="98" priority="103">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="expression" dxfId="91" priority="90">
+    <cfRule type="expression" dxfId="97" priority="98">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="91">
+    <cfRule type="expression" dxfId="96" priority="99">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="92">
+    <cfRule type="expression" dxfId="95" priority="100">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="expression" dxfId="88" priority="87">
+    <cfRule type="expression" dxfId="94" priority="95">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="88">
+    <cfRule type="expression" dxfId="93" priority="96">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="89">
+    <cfRule type="expression" dxfId="92" priority="97">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:C67">
-    <cfRule type="expression" dxfId="85" priority="84">
+    <cfRule type="expression" dxfId="91" priority="92">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="85">
+    <cfRule type="expression" dxfId="90" priority="93">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="86">
+    <cfRule type="expression" dxfId="89" priority="94">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:C67">
-    <cfRule type="expression" dxfId="82" priority="81">
+    <cfRule type="expression" dxfId="88" priority="89">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="82">
+    <cfRule type="expression" dxfId="87" priority="90">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="83">
+    <cfRule type="expression" dxfId="86" priority="91">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="79" priority="78">
+    <cfRule type="expression" dxfId="85" priority="86">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="79">
+    <cfRule type="expression" dxfId="84" priority="87">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="80">
+    <cfRule type="expression" dxfId="83" priority="88">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="76" priority="75">
+    <cfRule type="expression" dxfId="82" priority="83">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="76">
+    <cfRule type="expression" dxfId="81" priority="84">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="77">
+    <cfRule type="expression" dxfId="80" priority="85">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C84">
-    <cfRule type="expression" dxfId="73" priority="72">
+    <cfRule type="expression" dxfId="79" priority="80">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="73">
+    <cfRule type="expression" dxfId="78" priority="81">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="74">
+    <cfRule type="expression" dxfId="77" priority="82">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C84">
-    <cfRule type="expression" dxfId="70" priority="69">
+    <cfRule type="expression" dxfId="76" priority="77">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="70">
+    <cfRule type="expression" dxfId="75" priority="78">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="71">
+    <cfRule type="expression" dxfId="74" priority="79">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85">
-    <cfRule type="expression" dxfId="67" priority="66">
+    <cfRule type="expression" dxfId="73" priority="74">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="67">
+    <cfRule type="expression" dxfId="72" priority="75">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="68">
+    <cfRule type="expression" dxfId="71" priority="76">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85">
-    <cfRule type="expression" dxfId="64" priority="63">
+    <cfRule type="expression" dxfId="70" priority="71">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="64">
+    <cfRule type="expression" dxfId="69" priority="72">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="65">
+    <cfRule type="expression" dxfId="68" priority="73">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C91:C94">
-    <cfRule type="expression" dxfId="61" priority="60">
+  <conditionalFormatting sqref="C90:C93">
+    <cfRule type="expression" dxfId="67" priority="68">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="61">
+    <cfRule type="expression" dxfId="66" priority="69">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="62">
+    <cfRule type="expression" dxfId="65" priority="70">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C91:C94">
-    <cfRule type="expression" dxfId="58" priority="57">
+  <conditionalFormatting sqref="C90:C93">
+    <cfRule type="expression" dxfId="64" priority="65">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="58">
+    <cfRule type="expression" dxfId="63" priority="66">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="59">
+    <cfRule type="expression" dxfId="62" priority="67">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
-    <cfRule type="expression" dxfId="55" priority="54">
+  <conditionalFormatting sqref="C94">
+    <cfRule type="expression" dxfId="61" priority="62">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="55">
+    <cfRule type="expression" dxfId="60" priority="63">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="56">
+    <cfRule type="expression" dxfId="59" priority="64">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
-    <cfRule type="expression" dxfId="52" priority="51">
+  <conditionalFormatting sqref="C94">
+    <cfRule type="expression" dxfId="58" priority="59">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="52">
+    <cfRule type="expression" dxfId="57" priority="60">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="53">
+    <cfRule type="expression" dxfId="56" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:C101">
-    <cfRule type="expression" dxfId="49" priority="48">
+    <cfRule type="expression" dxfId="55" priority="56">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="49">
+    <cfRule type="expression" dxfId="54" priority="57">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="50">
+    <cfRule type="expression" dxfId="53" priority="58">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:C101">
-    <cfRule type="expression" dxfId="46" priority="45">
+    <cfRule type="expression" dxfId="52" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="51" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="47">
+    <cfRule type="expression" dxfId="50" priority="55">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="expression" dxfId="43" priority="42">
+    <cfRule type="expression" dxfId="49" priority="50">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="48" priority="51">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="44">
+    <cfRule type="expression" dxfId="47" priority="52">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
+    <cfRule type="expression" dxfId="46" priority="47">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="48">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="49">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90:A94 E90:G94">
+    <cfRule type="expression" dxfId="43" priority="44">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="45">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="46">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90:A94 E90:G94">
     <cfRule type="expression" dxfId="40" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -7723,144 +7778,144 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90:I90 A91:A95 E91:G95">
-    <cfRule type="expression" dxfId="35" priority="36">
+  <conditionalFormatting sqref="B90">
+    <cfRule type="expression" dxfId="37" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="37">
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="38">
+    <cfRule type="expression" dxfId="35" priority="38">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90:I90 A91:A95 E91:G95">
-    <cfRule type="expression" dxfId="32" priority="31">
+  <conditionalFormatting sqref="B90">
+    <cfRule type="expression" dxfId="34" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="33">
+    <cfRule type="expression" dxfId="32" priority="35">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90:F95">
-    <cfRule type="expression" dxfId="37" priority="34">
-      <formula>NOT(VLOOKUP(F90,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="35">
-      <formula>(VLOOKUP(F90,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="31" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30">
+    <cfRule type="expression" dxfId="29" priority="32">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="26" priority="25">
+    <cfRule type="expression" dxfId="28" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27">
+    <cfRule type="expression" dxfId="26" priority="29">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="25" priority="24">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="23" priority="26">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="expression" dxfId="20" priority="19">
+    <cfRule type="expression" dxfId="22" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="20" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="19" priority="18">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="16" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="14" priority="17">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B95">
-    <cfRule type="expression" dxfId="5" priority="4">
+  <conditionalFormatting sqref="A95:I95">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B95">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="A95:I95">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>NOT(VLOOKUP(F95,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>(VLOOKUP(F95,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
@@ -7903,15 +7958,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -7960,6 +8006,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
@@ -7975,14 +8030,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7995,4 +8042,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ExchangeActiveSync/Docs/MS-ASNOTE/MS-ASNOTE_RequirementSpecification.xlsx
+++ b/ExchangeActiveSync/Docs/MS-ASNOTE/MS-ASNOTE_RequirementSpecification.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8860A875-7B2D-4AF6-889E-6B50E939CA8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7496BBD4-6F6D-4B54-9792-768287ECEBC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2505" yWindow="1185" windowWidth="18570" windowHeight="11595" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="387">
   <si>
     <t>Req ID</t>
   </si>
@@ -1294,9 +1294,6 @@
     <t>MS-ASNOTE_R60005</t>
   </si>
   <si>
-    <t>[In Subject] Protocol version 16.1 supports this [In Subject] element.</t>
-  </si>
-  <si>
     <t>MS-ASNOTE_R53001</t>
   </si>
   <si>
@@ -1411,13 +1408,13 @@
     <t>[In Subject] Protocol version 14.0 supports this [Subject] element.</t>
   </si>
   <si>
-    <t>[In Subject] Protocol version 14.1 supports this [ubject] element.</t>
-  </si>
-  <si>
     <t>[In Subject] Protocol version 16.0 supports this [Subject] element.</t>
   </si>
   <si>
     <t>[In Subject] Protocol version 16.1 supports this [Subject] element.</t>
+  </si>
+  <si>
+    <t>[In Subject] Protocol version 14.1 supports this [Subject] element.</t>
   </si>
 </sst>
 </file>
@@ -1696,6 +1693,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1720,654 +1732,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="143">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2704,6 +2073,634 @@
         <vertAlign val="baseline"/>
         <name val="Calibri"/>
         <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
       </font>
     </dxf>
   </dxfs>
@@ -2835,34 +2832,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I175" tableType="xml" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I175" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I175" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="140">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="139">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="138">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="137">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="136">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="135">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="134">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="133">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="132">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -2871,12 +2868,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="131" dataDxfId="129" headerRowBorderDxfId="130" tableBorderDxfId="128" totalsRowBorderDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="126"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="125"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="124"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3206,8 +3203,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3264,128 +3261,128 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -3398,12 +3395,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -3416,12 +3413,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -3434,12 +3431,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -3452,60 +3449,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -4446,7 +4443,7 @@
         <v>173</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D56" s="30"/>
       <c r="E56" s="30" t="s">
@@ -4471,7 +4468,7 @@
         <v>173</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30" t="s">
@@ -4496,7 +4493,7 @@
         <v>173</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D58" s="30"/>
       <c r="E58" s="30" t="s">
@@ -4521,7 +4518,7 @@
         <v>173</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D59" s="30"/>
       <c r="E59" s="30" t="s">
@@ -4546,7 +4543,7 @@
         <v>173</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D60" s="30"/>
       <c r="E60" s="30" t="s">
@@ -4646,7 +4643,7 @@
         <v>174</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30" t="s">
@@ -4671,7 +4668,7 @@
         <v>174</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D65" s="30"/>
       <c r="E65" s="30" t="s">
@@ -4696,7 +4693,7 @@
         <v>174</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D66" s="30"/>
       <c r="E66" s="30" t="s">
@@ -4721,7 +4718,7 @@
         <v>174</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D67" s="30"/>
       <c r="E67" s="30" t="s">
@@ -4746,7 +4743,7 @@
         <v>174</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="30" t="s">
@@ -4871,7 +4868,7 @@
         <v>175</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D73" s="30"/>
       <c r="E73" s="30" t="s">
@@ -4896,7 +4893,7 @@
         <v>175</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D74" s="30"/>
       <c r="E74" s="30" t="s">
@@ -4921,7 +4918,7 @@
         <v>175</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D75" s="30"/>
       <c r="E75" s="30" t="s">
@@ -4946,7 +4943,7 @@
         <v>175</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D76" s="30"/>
       <c r="E76" s="30" t="s">
@@ -4971,7 +4968,7 @@
         <v>175</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D77" s="30"/>
       <c r="E77" s="30" t="s">
@@ -5065,13 +5062,13 @@
     </row>
     <row r="81" spans="1:9" ht="30">
       <c r="A81" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B81" s="31" t="s">
         <v>176</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="30" t="s">
@@ -5090,13 +5087,13 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B82" s="31" t="s">
         <v>176</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D82" s="30"/>
       <c r="E82" s="30" t="s">
@@ -5115,13 +5112,13 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B83" s="31" t="s">
         <v>176</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30" t="s">
@@ -5140,13 +5137,13 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B84" s="31" t="s">
         <v>176</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D84" s="30"/>
       <c r="E84" s="30" t="s">
@@ -5165,13 +5162,13 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B85" s="31" t="s">
         <v>176</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30" t="s">
@@ -5290,13 +5287,13 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B90" s="24" t="s">
         <v>177</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D90" s="30"/>
       <c r="E90" s="30" t="s">
@@ -5315,13 +5312,13 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B91" s="24" t="s">
         <v>177</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D91" s="30"/>
       <c r="E91" s="30" t="s">
@@ -5340,13 +5337,13 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B92" s="24" t="s">
         <v>177</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D92" s="30"/>
       <c r="E92" s="30" t="s">
@@ -5365,13 +5362,13 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B93" s="24" t="s">
         <v>177</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D93" s="30"/>
       <c r="E93" s="30" t="s">
@@ -5390,13 +5387,13 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B94" s="24" t="s">
         <v>177</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D94" s="30"/>
       <c r="E94" s="30" t="s">
@@ -5421,7 +5418,7 @@
         <v>178</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D95" s="30"/>
       <c r="E95" s="30" t="s">
@@ -5496,7 +5493,7 @@
         <v>178</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D98" s="30"/>
       <c r="E98" s="30" t="s">
@@ -5521,7 +5518,7 @@
         <v>178</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D99" s="30"/>
       <c r="E99" s="30" t="s">
@@ -5546,7 +5543,7 @@
         <v>178</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30" t="s">
@@ -5571,7 +5568,7 @@
         <v>178</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D101" s="30"/>
       <c r="E101" s="30" t="s">
@@ -5596,7 +5593,7 @@
         <v>178</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D102" s="30"/>
       <c r="E102" s="30" t="s">
@@ -7448,11 +7445,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -7460,461 +7452,466 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I20:I89 A20:H55 A34:I55 A61:I63 D56:I60 A56:B60 A78:I80 A73:B77 D73:I77 A69:I72 A64:B68 D64:I68 A86:I89 D90:D94 A103:I175 A98:B102 D98:I102 A96:I97 H90:I94 A81:B85 D81:I85 I96:I158">
-    <cfRule type="expression" dxfId="123" priority="171">
+    <cfRule type="expression" dxfId="142" priority="171">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="172">
+    <cfRule type="expression" dxfId="141" priority="172">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="179">
+    <cfRule type="expression" dxfId="140" priority="179">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I89 A20:H55 A34:I55 A61:I63 D56:I60 A56:B60 A78:I80 A73:B77 D73:I77 A69:I72 A64:B68 D64:I68 A86:I89 D90:D94 A103:I175 A98:B102 D98:I102 A96:I97 H90:I94 A81:B85 D81:I85 I96:I158">
-    <cfRule type="expression" dxfId="120" priority="125">
+    <cfRule type="expression" dxfId="139" priority="125">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="126">
+    <cfRule type="expression" dxfId="138" priority="126">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="127">
+    <cfRule type="expression" dxfId="137" priority="127">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F175 F20:F94">
-    <cfRule type="expression" dxfId="117" priority="131">
+    <cfRule type="expression" dxfId="136" priority="131">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="132">
+    <cfRule type="expression" dxfId="135" priority="132">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C59">
-    <cfRule type="expression" dxfId="115" priority="116">
+    <cfRule type="expression" dxfId="134" priority="116">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="117">
+    <cfRule type="expression" dxfId="133" priority="117">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="118">
+    <cfRule type="expression" dxfId="132" priority="118">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C59">
-    <cfRule type="expression" dxfId="112" priority="113">
+    <cfRule type="expression" dxfId="131" priority="113">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="114">
+    <cfRule type="expression" dxfId="130" priority="114">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="115">
+    <cfRule type="expression" dxfId="129" priority="115">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="109" priority="110">
+    <cfRule type="expression" dxfId="128" priority="110">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="111">
+    <cfRule type="expression" dxfId="127" priority="111">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="112">
+    <cfRule type="expression" dxfId="126" priority="112">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="106" priority="107">
+    <cfRule type="expression" dxfId="125" priority="107">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="108">
+    <cfRule type="expression" dxfId="124" priority="108">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="109">
+    <cfRule type="expression" dxfId="123" priority="109">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73:C76">
-    <cfRule type="expression" dxfId="103" priority="104">
+    <cfRule type="expression" dxfId="122" priority="104">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="105">
+    <cfRule type="expression" dxfId="121" priority="105">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="106">
+    <cfRule type="expression" dxfId="120" priority="106">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73:C76">
-    <cfRule type="expression" dxfId="100" priority="101">
+    <cfRule type="expression" dxfId="119" priority="101">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="102">
+    <cfRule type="expression" dxfId="118" priority="102">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="103">
+    <cfRule type="expression" dxfId="117" priority="103">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="expression" dxfId="97" priority="98">
+    <cfRule type="expression" dxfId="116" priority="98">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="99">
+    <cfRule type="expression" dxfId="115" priority="99">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="100">
+    <cfRule type="expression" dxfId="114" priority="100">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="expression" dxfId="94" priority="95">
+    <cfRule type="expression" dxfId="113" priority="95">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="96">
+    <cfRule type="expression" dxfId="112" priority="96">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="97">
+    <cfRule type="expression" dxfId="111" priority="97">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:C67">
-    <cfRule type="expression" dxfId="91" priority="92">
+    <cfRule type="expression" dxfId="110" priority="92">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="93">
+    <cfRule type="expression" dxfId="109" priority="93">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="94">
+    <cfRule type="expression" dxfId="108" priority="94">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:C67">
-    <cfRule type="expression" dxfId="88" priority="89">
+    <cfRule type="expression" dxfId="107" priority="89">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="90">
+    <cfRule type="expression" dxfId="106" priority="90">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="91">
+    <cfRule type="expression" dxfId="105" priority="91">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="85" priority="86">
+    <cfRule type="expression" dxfId="104" priority="86">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="87">
+    <cfRule type="expression" dxfId="103" priority="87">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="88">
+    <cfRule type="expression" dxfId="102" priority="88">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="82" priority="83">
+    <cfRule type="expression" dxfId="101" priority="83">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="84">
+    <cfRule type="expression" dxfId="100" priority="84">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="85">
+    <cfRule type="expression" dxfId="99" priority="85">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C84">
-    <cfRule type="expression" dxfId="79" priority="80">
+    <cfRule type="expression" dxfId="98" priority="80">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="81">
+    <cfRule type="expression" dxfId="97" priority="81">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="82">
+    <cfRule type="expression" dxfId="96" priority="82">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C84">
-    <cfRule type="expression" dxfId="76" priority="77">
+    <cfRule type="expression" dxfId="95" priority="77">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="78">
+    <cfRule type="expression" dxfId="94" priority="78">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="79">
+    <cfRule type="expression" dxfId="93" priority="79">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85">
-    <cfRule type="expression" dxfId="73" priority="74">
+    <cfRule type="expression" dxfId="92" priority="74">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="75">
+    <cfRule type="expression" dxfId="91" priority="75">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="76">
+    <cfRule type="expression" dxfId="90" priority="76">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85">
-    <cfRule type="expression" dxfId="70" priority="71">
+    <cfRule type="expression" dxfId="89" priority="71">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="72">
+    <cfRule type="expression" dxfId="88" priority="72">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="73">
+    <cfRule type="expression" dxfId="87" priority="73">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:C93">
-    <cfRule type="expression" dxfId="67" priority="68">
+    <cfRule type="expression" dxfId="86" priority="68">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="69">
+    <cfRule type="expression" dxfId="85" priority="69">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="70">
+    <cfRule type="expression" dxfId="84" priority="70">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:C93">
-    <cfRule type="expression" dxfId="64" priority="65">
+    <cfRule type="expression" dxfId="83" priority="65">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="66">
+    <cfRule type="expression" dxfId="82" priority="66">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="67">
+    <cfRule type="expression" dxfId="81" priority="67">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94">
-    <cfRule type="expression" dxfId="61" priority="62">
+    <cfRule type="expression" dxfId="80" priority="62">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="63">
+    <cfRule type="expression" dxfId="79" priority="63">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="64">
+    <cfRule type="expression" dxfId="78" priority="64">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94">
-    <cfRule type="expression" dxfId="58" priority="59">
+    <cfRule type="expression" dxfId="77" priority="59">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="60">
+    <cfRule type="expression" dxfId="76" priority="60">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="61">
+    <cfRule type="expression" dxfId="75" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:C101">
-    <cfRule type="expression" dxfId="55" priority="56">
+    <cfRule type="expression" dxfId="74" priority="56">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="57">
+    <cfRule type="expression" dxfId="73" priority="57">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="58">
+    <cfRule type="expression" dxfId="72" priority="58">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:C101">
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="71" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="54">
+    <cfRule type="expression" dxfId="70" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="55">
+    <cfRule type="expression" dxfId="69" priority="55">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="68" priority="50">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="51">
+    <cfRule type="expression" dxfId="67" priority="51">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="52">
+    <cfRule type="expression" dxfId="66" priority="52">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="65" priority="47">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="48">
+    <cfRule type="expression" dxfId="64" priority="48">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="49">
+    <cfRule type="expression" dxfId="63" priority="49">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:A94 E90:G94">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="62" priority="44">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="45">
+    <cfRule type="expression" dxfId="61" priority="45">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="46">
+    <cfRule type="expression" dxfId="60" priority="46">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:A94 E90:G94">
-    <cfRule type="expression" dxfId="40" priority="39">
+    <cfRule type="expression" dxfId="59" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="58" priority="40">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="41">
+    <cfRule type="expression" dxfId="57" priority="41">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" dxfId="37" priority="36">
+    <cfRule type="expression" dxfId="56" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="55" priority="37">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="38">
+    <cfRule type="expression" dxfId="54" priority="38">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" dxfId="34" priority="33">
+    <cfRule type="expression" dxfId="53" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="52" priority="34">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="35">
+    <cfRule type="expression" dxfId="51" priority="35">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="50" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="49" priority="31">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="32">
+    <cfRule type="expression" dxfId="48" priority="32">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="28" priority="27">
+    <cfRule type="expression" dxfId="47" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="46" priority="28">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="29">
+    <cfRule type="expression" dxfId="45" priority="29">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="expression" dxfId="25" priority="24">
+    <cfRule type="expression" dxfId="44" priority="24">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="43" priority="25">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="26">
+    <cfRule type="expression" dxfId="42" priority="26">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="expression" dxfId="22" priority="21">
+    <cfRule type="expression" dxfId="41" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="40" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="23">
+    <cfRule type="expression" dxfId="39" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="38" priority="18">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="37" priority="19">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="36" priority="20">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="expression" dxfId="16" priority="15">
+    <cfRule type="expression" dxfId="35" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="34" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="17">
+    <cfRule type="expression" dxfId="33" priority="17">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="31" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="28" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="27" priority="11">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:I95">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:I95">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>NOT(VLOOKUP(F95,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>(VLOOKUP(F95,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7958,6 +7955,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -8006,15 +8012,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
@@ -8030,6 +8027,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8042,12 +8047,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>